--- a/document/DSF 시퀀스.xlsx
+++ b/document/DSF 시퀀스.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="204">
   <si>
     <t>no</t>
   </si>
@@ -338,6 +338,9 @@
     <t>EventHostAutoCellInputCompleteConfirm</t>
   </si>
   <si>
+    <t>35_2_1</t>
+  </si>
+  <si>
     <t>[분기2 - 수동 투입] 수동 셀 투입 요청 with CellID</t>
   </si>
   <si>
@@ -347,40 +350,91 @@
     <t>분기2 - 수동 투입</t>
   </si>
   <si>
+    <t>35_2_2</t>
+  </si>
+  <si>
     <t>[분기2 - 수동 투입] 수동 셀 투입 요청 Confirm</t>
   </si>
   <si>
     <t>EventHostManualCellInputConfirm</t>
   </si>
   <si>
-    <t>[분기2 - 수동 투입] 투입셀 정보 검사 요청 with CellID &amp; TrayID</t>
+    <t>35_2_3</t>
+  </si>
+  <si>
+    <t>[분기2 - 수동 투입] 투입셀 정보 검사 요청 with CellID</t>
+  </si>
+  <si>
+    <t>35_2_4</t>
   </si>
   <si>
     <t>[분기2 - 수동 투입] 투입셀 정보 검사 요청 Confirm</t>
   </si>
   <si>
-    <t>[분기2 - 수동 투입] 수동투입 Tray 정보 확인 요청 with TrayId</t>
+    <t>35_2_5</t>
+  </si>
+  <si>
+    <t>[분기2 - 수동 투입] 수동투입 Tray 정보 확인 요청 with TrayID</t>
   </si>
   <si>
     <t>EventEqpManualInputTrayInfoRequest</t>
   </si>
   <si>
+    <t>35_2_6</t>
+  </si>
+  <si>
     <t>[분기2 - 수동 투입] 수동투입 Tray 정보 확인 Confirm</t>
   </si>
   <si>
     <t>EventHostManualInputTrayInfoConfirm</t>
   </si>
   <si>
+    <t>35_2_7</t>
+  </si>
+  <si>
     <t>[분기2 - 수동 투입] Recipe 요청 with TrayId</t>
   </si>
   <si>
-    <t>[분기2 - 수동 투입] Recipe 요청 Confirm with RouteId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[분기2 - 수동 투입] 수동 셀 투입 완료보고 </t>
+    <t>35_2_8</t>
+  </si>
+  <si>
+    <t>[분기2 - 수동 투입] Recipe 요청 Confirm with RouteID</t>
+  </si>
+  <si>
+    <t>35_2_9</t>
+  </si>
+  <si>
+    <t>[분기2 - 수동 투입] Rack 출고 요청 with TrayId/RackId</t>
+  </si>
+  <si>
+    <t>35_2_10</t>
+  </si>
+  <si>
+    <t>[분기2 - 수동 투입] Rack 출고 요청 Confirm</t>
+  </si>
+  <si>
+    <t>35_2_11</t>
+  </si>
+  <si>
+    <t>[분기2 - 수동 투입] Rack 출고 완료 보고 with TrayId/RackId</t>
+  </si>
+  <si>
+    <t>35_2_12</t>
+  </si>
+  <si>
+    <t>[분기2 - 수동 투입] Rack 출고 완료 보고 Confirm</t>
+  </si>
+  <si>
+    <t>35_2_13</t>
+  </si>
+  <si>
+    <t>[분기2 - 수동 투입] 수동 셀 투입 완료보고 with CellID</t>
   </si>
   <si>
     <t>EventEqpManualCellInputCompleteReport</t>
+  </si>
+  <si>
+    <t>35_2_14</t>
   </si>
   <si>
     <t>[분기2 - 수동 투입] 수동 셀 투입 완료보고 Confirm</t>
@@ -1702,10 +1756,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:G85"/>
+  <dimension ref="B3:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2340,42 +2394,42 @@
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="3">
-        <v>43</v>
+      <c r="B46" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="3">
-        <v>44</v>
+      <c r="B47" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="3">
-        <v>45</v>
+      <c r="B48" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>87</v>
@@ -2384,12 +2438,12 @@
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="3">
-        <v>46</v>
+      <c r="B49" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E49" t="s">
         <v>90</v>
@@ -2398,40 +2452,40 @@
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="3">
-        <v>47</v>
+      <c r="B50" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="3">
-        <v>48</v>
+      <c r="B51" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="3">
-        <v>49</v>
+      <c r="B52" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>28</v>
@@ -2440,12 +2494,12 @@
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="3">
-        <v>50</v>
+      <c r="B53" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>30</v>
@@ -2454,464 +2508,520 @@
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="3">
-        <v>51</v>
+      <c r="B54" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="3">
-        <v>52</v>
+      <c r="B55" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F55" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="F55" s="12"/>
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="3">
-        <v>53</v>
+      <c r="B56" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E56" t="s">
-        <v>121</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>122</v>
-      </c>
+      <c r="D56" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" s="12"/>
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="3">
-        <v>54</v>
+      <c r="B57" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="14" t="s">
-        <v>123</v>
+      <c r="D57" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F57" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="F57" s="12"/>
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="3">
-        <v>55</v>
+      <c r="B58" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="14" t="s">
-        <v>125</v>
+      <c r="D58" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F58" s="7"/>
+        <v>134</v>
+      </c>
+      <c r="F58" s="12"/>
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="3">
-        <v>56</v>
+      <c r="B59" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="14" t="s">
-        <v>127</v>
+      <c r="D59" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F59" s="7"/>
+        <v>137</v>
+      </c>
+      <c r="F59" s="13"/>
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="3">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F60" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="E60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="3">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="14" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="3">
-        <v>59</v>
-      </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G62" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="3">
-        <v>60</v>
-      </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>137</v>
+        <v>56</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="F63" s="7"/>
-      <c r="G63" s="15" t="s">
-        <v>138</v>
-      </c>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="3">
-        <v>61</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>140</v>
+        <v>57</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="15"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="3">
-        <v>62</v>
-      </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>142</v>
+        <v>58</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="F65" s="7"/>
-      <c r="G65" s="15"/>
+      <c r="G65" s="3"/>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="3">
-        <v>63</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>144</v>
+        <v>59</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G66" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="G66" s="15"/>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="3">
-        <v>64</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>147</v>
+        <v>60</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="F67" s="7"/>
-      <c r="G67" s="3"/>
+      <c r="G67" s="15" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="3">
-        <v>65</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>149</v>
+        <v>61</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="F68" s="7"/>
-      <c r="G68" s="3"/>
+      <c r="G68" s="15"/>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="3">
-        <v>66</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>151</v>
+        <v>62</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="F69" s="7"/>
-      <c r="G69" s="3"/>
+      <c r="G69" s="15"/>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="3">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="17" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F70" s="7"/>
+        <v>162</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="G70" s="3"/>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="3">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="17" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="3"/>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="3">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="17" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="3"/>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="3">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="17" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="3">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="17" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="3">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="17" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="3"/>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="3">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C76" s="3"/>
-      <c r="D76" s="18" t="s">
-        <v>164</v>
+      <c r="D76" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>166</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F76" s="7"/>
       <c r="G76" s="3"/>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="3">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="18" t="s">
-        <v>167</v>
+      <c r="D77" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F77" s="12"/>
+        <v>177</v>
+      </c>
+      <c r="F77" s="7"/>
       <c r="G77" s="3"/>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="3">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="18" t="s">
-        <v>169</v>
+      <c r="D78" s="17" t="s">
+        <v>178</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F78" s="12"/>
+        <v>179</v>
+      </c>
+      <c r="F78" s="7"/>
       <c r="G78" s="3"/>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="3">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="18" t="s">
-        <v>171</v>
+      <c r="D79" s="17" t="s">
+        <v>180</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F79" s="13"/>
+        <v>181</v>
+      </c>
+      <c r="F79" s="7"/>
       <c r="G79" s="3"/>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="3">
-        <v>77</v>
-      </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>174</v>
+        <v>73</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G80" s="15"/>
+        <v>184</v>
+      </c>
+      <c r="G80" s="3"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="3">
-        <v>78</v>
-      </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>177</v>
+        <v>74</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="F81" s="12"/>
-      <c r="G81" s="15"/>
+      <c r="G81" s="3"/>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="3">
-        <v>79</v>
-      </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>179</v>
+        <v>75</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="F82" s="12"/>
-      <c r="G82" s="15"/>
+      <c r="G82" s="3"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="3">
-        <v>80</v>
-      </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F83" s="12"/>
-      <c r="G83" s="15"/>
+        <v>76</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F83" s="13"/>
+      <c r="G83" s="3"/>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="3">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="19" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F84" s="12"/>
+        <v>192</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>193</v>
+      </c>
       <c r="G84" s="15"/>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="3">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="19" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="F85" s="13"/>
+        <v>195</v>
+      </c>
+      <c r="F85" s="12"/>
       <c r="G85" s="15"/>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="3">
+        <v>79</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F86" s="12"/>
+      <c r="G86" s="15"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="3">
+        <v>80</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F87" s="12"/>
+      <c r="G87" s="15"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="3">
+        <v>81</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F88" s="12"/>
+      <c r="G88" s="15"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="3">
+        <v>82</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F89" s="13"/>
+      <c r="G89" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2919,12 +3029,12 @@
     <mergeCell ref="F22:F29"/>
     <mergeCell ref="F30:F37"/>
     <mergeCell ref="F38:F45"/>
-    <mergeCell ref="F46:F55"/>
-    <mergeCell ref="F56:F61"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="F66:F75"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="F80:F85"/>
+    <mergeCell ref="F46:F59"/>
+    <mergeCell ref="F60:F65"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="F70:F79"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="F84:F89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/document/DSF 시퀀스.xlsx
+++ b/document/DSF 시퀀스.xlsx
@@ -470,7 +470,7 @@
     <t>EventHostInletTrayAllCellValidCheckConfirm</t>
   </si>
   <si>
-    <t>투입 Tray 배출 완료 보고</t>
+    <t>투입 Tray 배출 완료 보고 with TrayId</t>
   </si>
   <si>
     <t>EventEqpInletTrayOutputCompleteReport</t>
@@ -482,7 +482,7 @@
     <t>EventHostInletTrayOutputCompleteConfirm</t>
   </si>
   <si>
-    <t>셀 등급처리 요청 with CellID</t>
+    <t>현재 셀 등급처리 요청 with CellID</t>
   </si>
   <si>
     <t>EventEqpCellGradeProcessRequest</t>
@@ -491,7 +491,7 @@
     <t>셀 배출전 등급처리 요청</t>
   </si>
   <si>
-    <t>셀 등급처리 요청 Confirm</t>
+    <t>현재 셀 등급처리 요청 Confirm</t>
   </si>
   <si>
     <t>EventHostCellGradeProcessConfirm</t>
@@ -500,13 +500,13 @@
     <t>APD : 공정 자동 수집 데이터</t>
   </si>
   <si>
-    <t>셀 등급처리 완료 보고</t>
+    <t>현재 셀 등급처리 완료 보고</t>
   </si>
   <si>
     <t>EventEqpCellGradeProcessCompleteReport</t>
   </si>
   <si>
-    <t>셀 등급처리 완료 보고 Confirm</t>
+    <t>현재 셀 등급처리 완료 보고 Confirm</t>
   </si>
   <si>
     <t>EventHostCellGradeProcessCompleteConfirm</t>
@@ -1758,8 +1758,8 @@
   <sheetPr/>
   <dimension ref="B3:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54:E57"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="3">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="14" t="s">
@@ -2609,7 +2609,7 @@
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="3">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="14" t="s">
@@ -2623,7 +2623,7 @@
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="3">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="14" t="s">
@@ -2637,7 +2637,7 @@
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="3">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="14" t="s">
@@ -2651,7 +2651,7 @@
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="3">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="14" t="s">
@@ -2665,7 +2665,7 @@
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="3">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="14" t="s">
@@ -2679,7 +2679,7 @@
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="3">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="16" t="s">
@@ -2695,7 +2695,7 @@
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="3">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="16" t="s">
@@ -2711,7 +2711,7 @@
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="3">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="16" t="s">
@@ -2725,7 +2725,7 @@
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="3">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="16" t="s">
@@ -2739,7 +2739,7 @@
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="3">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="17" t="s">
@@ -2755,7 +2755,7 @@
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="3">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="17" t="s">
@@ -2769,7 +2769,7 @@
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="3">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="17" t="s">
@@ -2783,7 +2783,7 @@
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="3">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="17" t="s">
@@ -2797,7 +2797,7 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="3">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="17" t="s">
@@ -2811,7 +2811,7 @@
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="3">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="17" t="s">
@@ -2825,7 +2825,7 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="3">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="17" t="s">
@@ -2839,7 +2839,7 @@
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="3">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="17" t="s">
@@ -2853,7 +2853,7 @@
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="3">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="17" t="s">
@@ -2867,7 +2867,7 @@
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="3">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="17" t="s">
@@ -2881,7 +2881,7 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="3">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="18" t="s">
@@ -2897,7 +2897,7 @@
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="3">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="18" t="s">
@@ -2911,7 +2911,7 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="3">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="18" t="s">
@@ -2925,7 +2925,7 @@
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="3">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="18" t="s">
@@ -2939,7 +2939,7 @@
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="3">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="19" t="s">
@@ -2955,7 +2955,7 @@
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="3">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="19" t="s">
@@ -2969,7 +2969,7 @@
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="3">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="19" t="s">
@@ -2983,7 +2983,7 @@
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="3">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="19" t="s">
@@ -2997,7 +2997,7 @@
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="3">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="19" t="s">
@@ -3011,7 +3011,7 @@
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="3">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C89" s="15"/>
       <c r="D89" s="19" t="s">

--- a/document/DSF 시퀀스.xlsx
+++ b/document/DSF 시퀀스.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29870" windowHeight="13280" activeTab="1"/>
+    <workbookView windowWidth="29870" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="공정로직" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="232">
   <si>
     <t>no</t>
   </si>
@@ -48,6 +48,9 @@
     <t>비고</t>
   </si>
   <si>
+    <t>Clear</t>
+  </si>
+  <si>
     <t>투입부 Tray 도착 with TrayID</t>
   </si>
   <si>
@@ -57,6 +60,15 @@
     <t>투입 트레이 투입 요청</t>
   </si>
   <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>투입부 Tray 도착 Confirm(Tray  투입 가능 체크)</t>
+  </si>
+  <si>
+    <t>EventHostInletTrayArrivalConfirm</t>
+  </si>
+  <si>
     <t>바코드리더기 TrayIID Read</t>
   </si>
   <si>
@@ -81,12 +93,6 @@
     <t>EventHostCellIDReadConfirm</t>
   </si>
   <si>
-    <t>투입부 Tray 도착 Confirm(Tray  투입 가능 체크)</t>
-  </si>
-  <si>
-    <t>EventHostInletTrayArrivalConfirm</t>
-  </si>
-  <si>
     <t>투입 Tray 투입 요청 with TrayID</t>
   </si>
   <si>
@@ -114,7 +120,7 @@
     <t>투입 Tray 투입 완료 보고</t>
   </si>
   <si>
-    <t>EventEqpInletTrayInputCompleteRequest</t>
+    <t>EventEqpInletTrayInputCompleteReport</t>
   </si>
   <si>
     <t>투입 Tray 투입 완료 보고 Confirm</t>
@@ -189,16 +195,16 @@
     <t>EventHostOutletTrayBreakConfirm</t>
   </si>
   <si>
-    <t>배출 Tray Break 완료 요청</t>
-  </si>
-  <si>
-    <t>EventEqpTrayBreakCompleteRequest</t>
-  </si>
-  <si>
-    <t>배출 Tray Break 완료 요청 Confirm</t>
-  </si>
-  <si>
-    <t>EventHostTrayBreakCompleteConfirm</t>
+    <t>배출 Tray Break 완료 보고</t>
+  </si>
+  <si>
+    <t>EventEqpOutTrayBreakCompleteRequest</t>
+  </si>
+  <si>
+    <t>배출 Tray Break 완료 보고 Confirm</t>
+  </si>
+  <si>
+    <t>EventHostOutTrayBreakCompleteConfirm</t>
   </si>
   <si>
     <t>배출 Tray 투입 완료 보고</t>
@@ -243,7 +249,7 @@
     <t>NG Tray Break 완료 보고 with TrayId</t>
   </si>
   <si>
-    <t>EventEqpNGTrayBreakCompleteRequest</t>
+    <t>EventEqpNGTrayBreakCompleteReport</t>
   </si>
   <si>
     <t>NG Tray Break 완료 보고 Confirm</t>
@@ -1441,7 +1447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1466,6 +1472,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1476,6 +1485,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1874,13 +1886,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:G89"/>
+  <dimension ref="B3:I89"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:F37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H49" sqref="H46:H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="13.1636363636364" customWidth="1"/>
     <col min="4" max="4" width="57.4181818181818" customWidth="1"/>
@@ -1889,7 +1901,7 @@
     <col min="7" max="7" width="80.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="18.5" spans="2:7">
+    <row r="3" ht="18.5" spans="2:8">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1908,1238 +1920,1414 @@
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="18.5" spans="2:7">
-      <c r="B4" s="8">
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="18.5" spans="2:8">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="18.5" spans="2:8">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="18.5" spans="2:8">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="18.5" spans="2:8">
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="18.5" spans="2:8">
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="18.5" spans="2:8">
+      <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="18.5" spans="2:8">
+      <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="18.5" spans="2:8">
+      <c r="B11" s="9">
         <v>8</v>
       </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" ht="18.5" spans="2:7">
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="10" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="18.5" spans="2:8">
+      <c r="B12" s="9">
         <v>9</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" ht="18.5" spans="2:7">
-      <c r="B6" s="8">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="10" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="18.5" spans="2:8">
+      <c r="B13" s="9">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="18.5" spans="2:8">
+      <c r="B14" s="9">
         <v>11</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="18.5" spans="2:8">
+      <c r="B15" s="9">
         <v>12</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" ht="18.5" spans="2:7">
-      <c r="B7" s="8">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="18.5" spans="2:8">
+      <c r="B16" s="9">
         <v>13</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" ht="18.5" spans="2:8">
+      <c r="B17" s="9">
         <v>14</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" ht="18.5" spans="2:7">
-      <c r="B8" s="8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="10" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="18.5" spans="2:8">
+      <c r="B18" s="9">
         <v>15</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" ht="18.5" spans="2:8">
+      <c r="B19" s="9">
         <v>16</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" ht="18.5" spans="2:7">
-      <c r="B9" s="8">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" ht="18.5" spans="2:8">
+      <c r="B20" s="9">
         <v>17</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" ht="18.5" spans="2:9">
+      <c r="B21" s="9">
         <v>18</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" ht="18.5" spans="2:7">
-      <c r="B10" s="8">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" ht="18.5" spans="2:8">
+      <c r="B22" s="9">
         <v>19</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" ht="18.5" spans="2:8">
+      <c r="B23" s="9">
         <v>20</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" ht="18.5" spans="2:7">
-      <c r="B11" s="8">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" ht="18.5" spans="2:8">
+      <c r="B24" s="9">
         <v>21</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" ht="18.5" spans="2:8">
+      <c r="B25" s="9">
         <v>22</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" ht="18.5" spans="2:7">
-      <c r="B12" s="8">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" ht="18.5" spans="2:8">
+      <c r="B26" s="9">
         <v>23</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="18.5" spans="2:8">
+      <c r="B27" s="9">
         <v>24</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" ht="18.5" spans="2:7">
-      <c r="B13" s="8">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" ht="18.5" spans="2:8">
+      <c r="B28" s="9">
         <v>25</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" ht="18.5" spans="2:8">
+      <c r="B29" s="9">
         <v>26</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" ht="18.5" spans="2:7">
-      <c r="B14" s="8">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" ht="18.5" spans="2:8">
+      <c r="B30" s="9">
         <v>27</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" ht="18.5" spans="2:8">
+      <c r="B31" s="9">
         <v>28</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" ht="18.5" spans="2:7">
-      <c r="B15" s="8">
-        <v>12</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" ht="18.5" spans="2:8">
+      <c r="B32" s="9">
         <v>29</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" ht="18.5" spans="2:8">
+      <c r="B33" s="9">
         <v>30</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" ht="18.5" spans="2:7">
-      <c r="B16" s="8">
-        <v>13</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" ht="18.5" spans="2:8">
+      <c r="B34" s="9">
         <v>31</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="C34" s="9"/>
+      <c r="D34" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="18.5" spans="2:8">
+      <c r="B35" s="9">
         <v>32</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" ht="18.5" spans="2:7">
-      <c r="B17" s="8">
-        <v>14</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="10" t="s">
+      <c r="C35" s="9"/>
+      <c r="D35" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" ht="18.5" spans="2:8">
+      <c r="B36" s="9">
         <v>33</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" ht="18.5" spans="2:8">
+      <c r="B37" s="9">
         <v>34</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" ht="18.5" spans="2:7">
-      <c r="B18" s="8">
-        <v>15</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" ht="18.5" spans="2:8">
+      <c r="B38" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" ht="18.5" spans="2:8">
+      <c r="B39" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" ht="18.5" spans="2:8">
+      <c r="B40" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" ht="18.5" spans="2:8">
+      <c r="B41" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" ht="18.5" spans="2:8">
+      <c r="B42" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" ht="18.5" spans="2:8">
+      <c r="B43" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" ht="18.5" spans="2:8">
+      <c r="B44" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" ht="18.5" spans="2:8">
+      <c r="B45" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" ht="18.5" spans="2:8">
+      <c r="B46" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" ht="18.5" spans="2:8">
+      <c r="B47" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="24"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" ht="18.5" spans="2:8">
+      <c r="B48" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="24"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" ht="18.5" spans="2:8">
+      <c r="B49" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="24"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" ht="18.5" spans="2:8">
+      <c r="B50" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" s="24"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" ht="18.5" spans="2:8">
+      <c r="B51" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" s="24"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" ht="18.5" spans="2:8">
+      <c r="B52" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="24"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" ht="18.5" spans="2:8">
+      <c r="B53" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" ht="18.5" spans="2:7">
-      <c r="B19" s="8">
-        <v>16</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="10" t="s">
+      <c r="F53" s="24"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" ht="18.5" spans="2:8">
+      <c r="B54" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="24"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" ht="18.5" spans="2:8">
+      <c r="B55" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="24"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" ht="18.5" spans="2:8">
+      <c r="B56" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="24"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" ht="18.5" spans="2:8">
+      <c r="B57" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="24"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" ht="18.5" spans="2:8">
+      <c r="B58" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" s="24"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" ht="18.5" spans="2:8">
+      <c r="B59" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="25"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" ht="18.5" spans="2:8">
+      <c r="B60" s="9">
+        <v>36</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="13"/>
+    </row>
+    <row r="61" ht="18.5" spans="2:8">
+      <c r="B61" s="9">
         <v>37</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="C61" s="9"/>
+      <c r="D61" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61" s="17"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" ht="18.5" spans="2:8">
+      <c r="B62" s="9">
         <v>38</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" ht="18.5" spans="2:7">
-      <c r="B20" s="8">
-        <v>17</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="10" t="s">
+      <c r="C62" s="9"/>
+      <c r="D62" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" s="17"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" ht="18.5" spans="2:8">
+      <c r="B63" s="9">
         <v>39</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="C63" s="9"/>
+      <c r="D63" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="13"/>
+    </row>
+    <row r="64" ht="18.5" spans="2:8">
+      <c r="B64" s="9">
         <v>40</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" ht="18.5" spans="2:7">
-      <c r="B21" s="8">
-        <v>18</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10" t="s">
+      <c r="C64" s="9"/>
+      <c r="D64" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F64" s="17"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="13"/>
+    </row>
+    <row r="65" ht="18.5" spans="2:8">
+      <c r="B65" s="9">
         <v>41</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="C65" s="9"/>
+      <c r="D65" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F65" s="17"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="13"/>
+    </row>
+    <row r="66" ht="18.5" spans="2:8">
+      <c r="B66" s="9">
         <v>42</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" ht="18.5" spans="2:7">
-      <c r="B22" s="8">
-        <v>19</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="13" t="s">
+      <c r="C66" s="27"/>
+      <c r="D66" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G66" s="27"/>
+      <c r="H66" s="13"/>
+    </row>
+    <row r="67" ht="18.5" spans="2:8">
+      <c r="B67" s="9">
         <v>43</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="C67" s="27"/>
+      <c r="D67" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="F67" s="17"/>
+      <c r="G67" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="H67" s="13"/>
+    </row>
+    <row r="68" ht="18.5" spans="2:8">
+      <c r="B68" s="9">
         <v>44</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="C68" s="27"/>
+      <c r="D68" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F68" s="17"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="13"/>
+    </row>
+    <row r="69" ht="18.5" spans="2:8">
+      <c r="B69" s="9">
         <v>45</v>
       </c>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" ht="18.5" spans="2:7">
-      <c r="B23" s="8">
-        <v>20</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="13" t="s">
+      <c r="C69" s="27"/>
+      <c r="D69" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F69" s="17"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="13"/>
+    </row>
+    <row r="70" ht="18.5" spans="2:8">
+      <c r="B70" s="9">
         <v>46</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="C70" s="9"/>
+      <c r="D70" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G70" s="9"/>
+      <c r="H70" s="13"/>
+    </row>
+    <row r="71" ht="18.5" spans="2:8">
+      <c r="B71" s="9">
         <v>47</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" ht="18.5" spans="2:7">
-      <c r="B24" s="8">
-        <v>21</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="13" t="s">
+      <c r="C71" s="9"/>
+      <c r="D71" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F71" s="17"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="13"/>
+    </row>
+    <row r="72" ht="18.5" spans="2:8">
+      <c r="B72" s="9">
         <v>48</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="C72" s="9"/>
+      <c r="D72" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F72" s="17"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="13"/>
+    </row>
+    <row r="73" ht="18.5" spans="2:8">
+      <c r="B73" s="9">
         <v>49</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="9" t="s">
+      <c r="C73" s="9"/>
+      <c r="D73" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F73" s="17"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="13"/>
+    </row>
+    <row r="74" ht="18.5" spans="2:8">
+      <c r="B74" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" ht="18.5" spans="2:7">
-      <c r="B25" s="8">
-        <v>22</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="13" t="s">
+      <c r="C74" s="9"/>
+      <c r="D74" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F74" s="17"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="13"/>
+    </row>
+    <row r="75" ht="18.5" spans="2:8">
+      <c r="B75" s="9">
         <v>51</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="C75" s="9"/>
+      <c r="D75" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F75" s="17"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="13"/>
+    </row>
+    <row r="76" ht="18.5" spans="2:8">
+      <c r="B76" s="9">
         <v>52</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" ht="18.5" spans="2:7">
-      <c r="B26" s="8">
-        <v>23</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="13" t="s">
+      <c r="C76" s="9"/>
+      <c r="D76" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F76" s="17"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="13"/>
+    </row>
+    <row r="77" ht="18.5" spans="2:8">
+      <c r="B77" s="9">
         <v>53</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="C77" s="9"/>
+      <c r="D77" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F77" s="17"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="13"/>
+    </row>
+    <row r="78" ht="18.5" spans="2:8">
+      <c r="B78" s="9">
         <v>54</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" ht="18.5" spans="2:7">
-      <c r="B27" s="8">
-        <v>24</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="13" t="s">
+      <c r="C78" s="9"/>
+      <c r="D78" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F78" s="17"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="13"/>
+    </row>
+    <row r="79" ht="18.5" spans="2:8">
+      <c r="B79" s="9">
         <v>55</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="C79" s="9"/>
+      <c r="D79" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F79" s="17"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="13"/>
+    </row>
+    <row r="80" ht="18.5" spans="2:8">
+      <c r="B80" s="9">
         <v>56</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" ht="18.5" spans="2:7">
-      <c r="B28" s="8">
-        <v>25</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="13" t="s">
+      <c r="C80" s="9"/>
+      <c r="D80" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G80" s="9"/>
+      <c r="H80" s="13"/>
+    </row>
+    <row r="81" ht="18.5" spans="2:8">
+      <c r="B81" s="9">
         <v>57</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="C81" s="9"/>
+      <c r="D81" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F81" s="24"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="13"/>
+    </row>
+    <row r="82" ht="18.5" spans="2:8">
+      <c r="B82" s="9">
         <v>58</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" ht="18.5" spans="2:7">
-      <c r="B29" s="8">
-        <v>26</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="13" t="s">
+      <c r="C82" s="9"/>
+      <c r="D82" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F82" s="24"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="13"/>
+    </row>
+    <row r="83" ht="18.5" spans="2:8">
+      <c r="B83" s="9">
         <v>59</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="C83" s="9"/>
+      <c r="D83" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F83" s="25"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="13"/>
+    </row>
+    <row r="84" ht="18.5" spans="2:8">
+      <c r="B84" s="9">
         <v>60</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" ht="18.5" spans="2:7">
-      <c r="B30" s="8">
-        <v>27</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="17" t="s">
+      <c r="C84" s="27"/>
+      <c r="D84" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G84" s="27"/>
+      <c r="H84" s="13"/>
+    </row>
+    <row r="85" ht="18.5" spans="2:8">
+      <c r="B85" s="9">
         <v>61</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="C85" s="27"/>
+      <c r="D85" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F85" s="24"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="13"/>
+    </row>
+    <row r="86" ht="18.5" spans="2:8">
+      <c r="B86" s="9">
         <v>62</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="C86" s="27"/>
+      <c r="D86" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F86" s="24"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="13"/>
+    </row>
+    <row r="87" ht="18.5" spans="2:8">
+      <c r="B87" s="9">
         <v>63</v>
       </c>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" ht="18.5" spans="2:7">
-      <c r="B31" s="8">
-        <v>28</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="17" t="s">
+      <c r="C87" s="27"/>
+      <c r="D87" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="E87" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F87" s="24"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="13"/>
+    </row>
+    <row r="88" ht="18.5" spans="2:8">
+      <c r="B88" s="9">
         <v>64</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="C88" s="27"/>
+      <c r="D88" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="E88" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="F88" s="24"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="13"/>
+    </row>
+    <row r="89" ht="18.5" spans="2:8">
+      <c r="B89" s="9">
         <v>65</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" ht="18.5" spans="2:7">
-      <c r="B32" s="8">
-        <v>29</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" ht="18.5" spans="2:7">
-      <c r="B33" s="8">
-        <v>30</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" ht="18.5" spans="2:7">
-      <c r="B34" s="8">
-        <v>31</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" ht="18.5" spans="2:7">
-      <c r="B35" s="8">
-        <v>32</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" ht="18.5" spans="2:7">
-      <c r="B36" s="8">
-        <v>33</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" ht="18.5" spans="2:7">
-      <c r="B37" s="8">
-        <v>34</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" ht="18.5" spans="2:7">
-      <c r="B38" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" ht="18.5" spans="2:7">
-      <c r="B39" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" ht="18.5" spans="2:7">
-      <c r="B40" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" ht="18.5" spans="2:7">
-      <c r="B41" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" ht="18.5" spans="2:7">
-      <c r="B42" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" ht="18.5" spans="2:7">
-      <c r="B43" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" ht="18.5" spans="2:7">
-      <c r="B44" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" ht="18.5" spans="2:7">
-      <c r="B45" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" ht="18.5" spans="2:7">
-      <c r="B46" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" ht="18.5" spans="2:7">
-      <c r="B47" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" ht="18.5" spans="2:7">
-      <c r="B48" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F48" s="22"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" ht="18.5" spans="2:7">
-      <c r="B49" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" ht="18.5" spans="2:7">
-      <c r="B50" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" ht="18.5" spans="2:7">
-      <c r="B51" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" ht="18.5" spans="2:7">
-      <c r="B52" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" ht="18.5" spans="2:7">
-      <c r="B53" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="22"/>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" ht="18.5" spans="2:7">
-      <c r="B54" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" ht="18.5" spans="2:7">
-      <c r="B55" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" ht="18.5" spans="2:7">
-      <c r="B56" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" ht="18.5" spans="2:7">
-      <c r="B57" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" ht="18.5" spans="2:7">
-      <c r="B58" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" ht="18.5" spans="2:7">
-      <c r="B59" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" ht="18.5" spans="2:7">
-      <c r="B60" s="8">
-        <v>36</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" ht="18.5" spans="2:7">
-      <c r="B61" s="8">
-        <v>37</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" ht="18.5" spans="2:7">
-      <c r="B62" s="8">
-        <v>38</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" ht="18.5" spans="2:7">
-      <c r="B63" s="8">
-        <v>39</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F63" s="15"/>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" ht="18.5" spans="2:7">
-      <c r="B64" s="8">
-        <v>40</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F64" s="15"/>
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" ht="18.5" spans="2:7">
-      <c r="B65" s="8">
-        <v>41</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F65" s="15"/>
-      <c r="G65" s="8"/>
-    </row>
-    <row r="66" ht="18.5" spans="2:7">
-      <c r="B66" s="8">
-        <v>42</v>
-      </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G66" s="25"/>
-    </row>
-    <row r="67" ht="18.5" spans="2:7">
-      <c r="B67" s="8">
-        <v>43</v>
-      </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="F67" s="15"/>
-      <c r="G67" s="27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="68" ht="18.5" spans="2:7">
-      <c r="B68" s="8">
-        <v>44</v>
-      </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="F68" s="15"/>
-      <c r="G68" s="25"/>
-    </row>
-    <row r="69" ht="18.5" spans="2:7">
-      <c r="B69" s="8">
-        <v>45</v>
-      </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="F69" s="15"/>
-      <c r="G69" s="25"/>
-    </row>
-    <row r="70" ht="18.5" spans="2:7">
-      <c r="B70" s="8">
-        <v>46</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="G70" s="8"/>
-    </row>
-    <row r="71" ht="18.5" spans="2:7">
-      <c r="B71" s="8">
-        <v>47</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F71" s="15"/>
-      <c r="G71" s="8"/>
-    </row>
-    <row r="72" ht="18.5" spans="2:7">
-      <c r="B72" s="8">
-        <v>48</v>
-      </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F72" s="15"/>
-      <c r="G72" s="8"/>
-    </row>
-    <row r="73" ht="18.5" spans="2:7">
-      <c r="B73" s="8">
-        <v>49</v>
-      </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F73" s="15"/>
-      <c r="G73" s="8"/>
-    </row>
-    <row r="74" ht="18.5" spans="2:7">
-      <c r="B74" s="8">
-        <v>50</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="8"/>
-    </row>
-    <row r="75" ht="18.5" spans="2:7">
-      <c r="B75" s="8">
-        <v>51</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F75" s="15"/>
-      <c r="G75" s="8"/>
-    </row>
-    <row r="76" ht="18.5" spans="2:7">
-      <c r="B76" s="8">
-        <v>52</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="8"/>
-    </row>
-    <row r="77" ht="18.5" spans="2:7">
-      <c r="B77" s="8">
-        <v>53</v>
-      </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F77" s="15"/>
-      <c r="G77" s="8"/>
-    </row>
-    <row r="78" ht="18.5" spans="2:7">
-      <c r="B78" s="8">
-        <v>54</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F78" s="15"/>
-      <c r="G78" s="8"/>
-    </row>
-    <row r="79" ht="18.5" spans="2:7">
-      <c r="B79" s="8">
-        <v>55</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F79" s="15"/>
-      <c r="G79" s="8"/>
-    </row>
-    <row r="80" ht="18.5" spans="2:7">
-      <c r="B80" s="8">
-        <v>56</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="G80" s="8"/>
-    </row>
-    <row r="81" ht="18.5" spans="2:7">
-      <c r="B81" s="8">
-        <v>57</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="F81" s="22"/>
-      <c r="G81" s="8"/>
-    </row>
-    <row r="82" ht="18.5" spans="2:7">
-      <c r="B82" s="8">
-        <v>58</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F82" s="22"/>
-      <c r="G82" s="8"/>
-    </row>
-    <row r="83" ht="18.5" spans="2:7">
-      <c r="B83" s="8">
-        <v>59</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="8"/>
-    </row>
-    <row r="84" ht="18.5" spans="2:7">
-      <c r="B84" s="8">
-        <v>60</v>
-      </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="E84" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="F84" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="G84" s="25"/>
-    </row>
-    <row r="85" ht="18.5" spans="2:7">
-      <c r="B85" s="8">
-        <v>61</v>
-      </c>
-      <c r="C85" s="25"/>
-      <c r="D85" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="E85" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="F85" s="22"/>
-      <c r="G85" s="25"/>
-    </row>
-    <row r="86" ht="18.5" spans="2:7">
-      <c r="B86" s="8">
-        <v>62</v>
-      </c>
-      <c r="C86" s="25"/>
-      <c r="D86" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="E86" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="25"/>
-    </row>
-    <row r="87" ht="18.5" spans="2:7">
-      <c r="B87" s="8">
-        <v>63</v>
-      </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="F87" s="22"/>
-      <c r="G87" s="25"/>
-    </row>
-    <row r="88" ht="18.5" spans="2:7">
-      <c r="B88" s="8">
-        <v>64</v>
-      </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="E88" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="F88" s="22"/>
-      <c r="G88" s="25"/>
-    </row>
-    <row r="89" ht="18.5" spans="2:7">
-      <c r="B89" s="8">
-        <v>65</v>
-      </c>
-      <c r="C89" s="25"/>
-      <c r="D89" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="E89" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="F89" s="23"/>
-      <c r="G89" s="25"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="F89" s="25"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3164,7 +3352,7 @@
   <sheetPr/>
   <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
@@ -3180,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3200,13 +3388,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3217,10 +3405,10 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3246,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
@@ -3266,13 +3454,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -3283,10 +3471,10 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3312,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -3332,13 +3520,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3349,10 +3537,10 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3378,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
@@ -3398,13 +3586,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3415,10 +3603,10 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3444,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>2</v>
@@ -3464,13 +3652,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3481,10 +3669,10 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>

--- a/document/DSF 시퀀스.xlsx
+++ b/document/DSF 시퀀스.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="250">
   <si>
     <t>no</t>
   </si>
@@ -57,16 +57,19 @@
     <t>EventInputPortInputTrayBound</t>
   </si>
   <si>
-    <t>투입부포트 Tray 도착 report with TrayID</t>
+    <t>O</t>
+  </si>
+  <si>
+    <t>투입부 Tray 도착 report with TrayID</t>
   </si>
   <si>
     <t>EventEqpInletTrayArrivalReport</t>
   </si>
   <si>
-    <t>투입부포트 Tray 도착 Confirm(Tray  투입 가능 체크)</t>
-  </si>
-  <si>
-    <t>EventHostInletTrayArrivalConfirm</t>
+    <t>투입부 Tray 도착 Confirm(Tray  투입 가능 체크)</t>
+  </si>
+  <si>
+    <t>EventHostInletTrayArrivalAck</t>
   </si>
   <si>
     <t>바코드리더기 TrayIID Read</t>
@@ -78,7 +81,7 @@
     <t>바코드리더기 TrayID Read Confirm</t>
   </si>
   <si>
-    <t>EventHostTrayIDReadConfirm</t>
+    <t>EventHostTrayIDReadAck</t>
   </si>
   <si>
     <t>투입 Tray 투입 요청 with TrayID</t>
@@ -90,7 +93,7 @@
     <t>투입 Tray 투입 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostInletTrayInputConfirm</t>
+    <t>EventHostInletTrayInputAck</t>
   </si>
   <si>
     <t>투입 Tray 전체 셀 정보 요청 with trayId</t>
@@ -102,7 +105,7 @@
     <t>투입 Tray 전체 셀 정보 confirm</t>
   </si>
   <si>
-    <t>EventHostCellsInfoCofirm</t>
+    <t>EventHostCellsInfoAck</t>
   </si>
   <si>
     <t>투입 Tray 투입 완료 보고</t>
@@ -114,7 +117,7 @@
     <t>투입 Tray 투입 완료 보고 Confirm</t>
   </si>
   <si>
-    <t>EventHostInletTrayInputCompleteConfirm</t>
+    <t>EventHostInletTrayInputCompleteAck</t>
   </si>
   <si>
     <t>Recipe 요청 with TrayId</t>
@@ -126,7 +129,7 @@
     <t>Recipe 요청 Confirm with RouteId</t>
   </si>
   <si>
-    <t>EventHostRecipeInfoConfirm</t>
+    <t>EventHostRecipeInfoAck</t>
   </si>
   <si>
     <t>Rack 출고 요청 with TrayId/RackId</t>
@@ -138,7 +141,7 @@
     <t>Rack 출고 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostRackOutputConfirm</t>
+    <t>EventHostRackOutputAck</t>
   </si>
   <si>
     <t>Rack 출고 완료 보고 with TrayId/RackId</t>
@@ -150,7 +153,7 @@
     <t>Rack 출고 완료 보고 Confirm</t>
   </si>
   <si>
-    <t>EventHostRackOutputCompleteConfirm</t>
+    <t>EventHostRackOutputCompleteAck</t>
   </si>
   <si>
     <t>배출 트레이 투입 요청</t>
@@ -171,7 +174,7 @@
     <t>배출 Tray 투입 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostOutletTrayInputConfirm</t>
+    <t>EventHostOutletTrayInputAck</t>
   </si>
   <si>
     <t>배출 Tray Break 요청 with TrayId</t>
@@ -186,7 +189,7 @@
     <t>배출 Tray Break 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostOutletTrayBreakConfirm</t>
+    <t>EventHostOutletTrayBreakAck</t>
   </si>
   <si>
     <t>배출 Tray Break 완료 보고</t>
@@ -198,7 +201,7 @@
     <t>배출 Tray Break 완료 보고 Confirm</t>
   </si>
   <si>
-    <t>EventHostOutTrayBreakCompleteConfirm</t>
+    <t>EventHostOutTrayBreakCompleteAck</t>
   </si>
   <si>
     <t>배출 Tray 투입 완료 보고</t>
@@ -210,7 +213,7 @@
     <t>배출 Tray 투입 완료 보고 Confirm</t>
   </si>
   <si>
-    <t>EventHostOutletTrayInputCompleteConfirm</t>
+    <t>EventHostOutletTrayInputCompleteAck</t>
   </si>
   <si>
     <t>NG 트레이 투입 요청</t>
@@ -231,7 +234,7 @@
     <t>NG Tray 투입 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostNGTrayInputConfirm</t>
+    <t>EventHostNGTrayInputAck</t>
   </si>
   <si>
     <t>NG Tray Break 요청 with TrayId</t>
@@ -243,7 +246,7 @@
     <t>NG Tray Break 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostNGTrayBreakConfirm</t>
+    <t>EventHostNGTrayBreakAck</t>
   </si>
   <si>
     <t>NG Tray Break 완료 보고 with TrayId</t>
@@ -255,7 +258,7 @@
     <t>NG Tray Break 완료 보고 Confirm</t>
   </si>
   <si>
-    <t>EventHostNGTrayBreakCompleteConfirm</t>
+    <t>EventHostNGTrayBreakCompleteAck</t>
   </si>
   <si>
     <t>NG Tray 투입 완료 보고</t>
@@ -267,7 +270,7 @@
     <t>NG Tray 투입 완료 보고 Confirm</t>
   </si>
   <si>
-    <t>EventHostNGTrayInputCompleteConfirm</t>
+    <t>EventHostNGTrayInputCompleteAck</t>
   </si>
   <si>
     <t>36_1_1</t>
@@ -288,7 +291,7 @@
     <t>[분기1 - 자동 투입] 자동 셀 투입 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostAutoCellInputConfirm</t>
+    <t>EventHostAutoCellInputAck</t>
   </si>
   <si>
     <t>36_1_3</t>
@@ -306,7 +309,7 @@
     <t>[분기1 - 자동 투입] 투입셀 정보 검사 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostInputCellInfoInspectionConfirm</t>
+    <t>EventHostInputCellInfoInspectionAck</t>
   </si>
   <si>
     <t>36_1_5</t>
@@ -324,7 +327,7 @@
     <t>[분기1 - 자동 투입] 셀 공정 시작 보고 Confirm</t>
   </si>
   <si>
-    <t>EventHostCellProcessStartConfirm</t>
+    <t>EventHostCellProcessStartAck</t>
   </si>
   <si>
     <t>36_1_7</t>
@@ -342,7 +345,7 @@
     <t>[분기1 - 자동 투입] 자동 셀 투입 완료보고 Confirm</t>
   </si>
   <si>
-    <t>EventHostAutoCellInputCompleteConfirm</t>
+    <t>EventHostAutoCellInputCompleteAck</t>
   </si>
   <si>
     <t>36_2_1</t>
@@ -363,7 +366,7 @@
     <t>[분기2 - 수동 투입] 수동 셀 투입 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostManualCellInputConfirm</t>
+    <t>EventHostManualCellInputAck</t>
   </si>
   <si>
     <t>36_2_3</t>
@@ -393,7 +396,7 @@
     <t>[분기2 - 수동 투입] 수동투입 Tray 정보 확인 Confirm</t>
   </si>
   <si>
-    <t>EventHostManualInputTrayInfoConfirm</t>
+    <t>EventHostManualInputTrayInfoAck</t>
   </si>
   <si>
     <t>36_2_7</t>
@@ -447,7 +450,7 @@
     <t>[분기2 - 수동 투입] 수동 셀 투입 완료보고 Confirm</t>
   </si>
   <si>
-    <t>EventHostManualCellInputCompleteConfirm</t>
+    <t>EventHostManualCellInputCompleteAck</t>
   </si>
   <si>
     <t>공정 프로세스 시작</t>
@@ -462,7 +465,7 @@
     <t>공정프로세스 시작보고 Confirm</t>
   </si>
   <si>
-    <t>EventHostProcessStartConfirm</t>
+    <t>EventHostProcessStartAck</t>
   </si>
   <si>
     <t>공정프로세스 완료 보고</t>
@@ -474,7 +477,7 @@
     <t>공정 프로세스 완료 보고 Confirm</t>
   </si>
   <si>
-    <t>EventHostProcessEndConfirm</t>
+    <t>EventHostProcessEndAck</t>
   </si>
   <si>
     <t>투입 트레이 배출 요청</t>
@@ -489,7 +492,7 @@
     <t>투입 Tray 배출 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostInletTrayOutputConfirm</t>
+    <t>EventHostInletTrayOutputAck</t>
   </si>
   <si>
     <t>투입 Tray 전체 Cell valid Check 요청 with TrayID</t>
@@ -501,7 +504,7 @@
     <t>투입 Tray 전체 Cell valid Check 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostInletTrayAllCellValidCheckConfirm</t>
+    <t>EventHostInletTrayAllCellValidCheckAck</t>
   </si>
   <si>
     <t>투입 Tray 배출 완료 보고 with TrayId</t>
@@ -513,7 +516,7 @@
     <t>투입 Tray 배출 완료 보고 Confirm</t>
   </si>
   <si>
-    <t>EventHostInletTrayOutputCompleteConfirm</t>
+    <t>EventHostInletTrayOutputCompleteAck</t>
   </si>
   <si>
     <t>배출부포트 투입Tray Bound</t>
@@ -534,7 +537,7 @@
     <t>현재 셀 등급처리 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostCellGradeProcessConfirm</t>
+    <t>EventHostCellGradeProcessAck</t>
   </si>
   <si>
     <t>APD : 공정 자동 수집 데이터</t>
@@ -549,7 +552,7 @@
     <t>현재 셀 등급처리 완료 보고 Confirm</t>
   </si>
   <si>
-    <t>EventHostCellGradeProcessCompleteConfirm</t>
+    <t>EventHostCellGradeProcessCompleteAck</t>
   </si>
   <si>
     <t>배출 트레이 배출 요청</t>
@@ -564,7 +567,7 @@
     <t>배출 Tray 배출 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostOutletTrayOutputConfirm</t>
+    <t>EventHostOutletTrayOutputAck</t>
   </si>
   <si>
     <t>배출 Tray 정보 확인 요청 with TrayId</t>
@@ -576,7 +579,7 @@
     <t>배출 Tray 정보 확인 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostOutletTrayInfoConfirm</t>
+    <t>EventHostOutletTrayInfoAck</t>
   </si>
   <si>
     <t>배출 Tray 배출 완료 보고</t>
@@ -588,7 +591,7 @@
     <t>배출 Tray 배출 완료 보고 Confirm</t>
   </si>
   <si>
-    <t>EventHostOutletTrayOutputCompleteConfirm</t>
+    <t>EventHostOutletTrayOutputCompleteAck</t>
   </si>
   <si>
     <t>Rack 입고 요청 with TrayId/RackId</t>
@@ -600,7 +603,7 @@
     <t>Rack 입고 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostRackInputConfirm</t>
+    <t>EventHostRackInputAck</t>
   </si>
   <si>
     <t>Rack 입고 완료 요청 with TrayId/RackId</t>
@@ -612,7 +615,7 @@
     <t>Rack 입고 완료 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostRackInputCompleteConfirm</t>
+    <t>EventHostRackInputCompleteAck</t>
   </si>
   <si>
     <t>배출부포트 배출Tray Bound</t>
@@ -633,7 +636,7 @@
     <t>NG Tray 배출 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostNGTrayOutputConfirm</t>
+    <t>EventHostNGTrayOutputAck</t>
   </si>
   <si>
     <t>NG Tray 배출 완료 보고</t>
@@ -645,7 +648,7 @@
     <t>NG Tray 배출 완료 보고 Confirm</t>
   </si>
   <si>
-    <t>EventHostNGTrayOutputCompleteConfirm</t>
+    <t>EventHostNGTrayOutputCompleteAck</t>
   </si>
   <si>
     <t>배출부포트 NGTray Bound</t>
@@ -666,7 +669,7 @@
     <t>배드셀 강제배출 요청 Confirm</t>
   </si>
   <si>
-    <t>EventHostBadCellForceOutputConfirm</t>
+    <t>EventHostBadCellForceOutputAck</t>
   </si>
   <si>
     <t>배드셀 강제배출 완료 보고</t>
@@ -678,7 +681,7 @@
     <t>배드셀 강제배출 완료 보고 Confirm</t>
   </si>
   <si>
-    <t>EventHostBadCellForceOutputCompleteConfirm</t>
+    <t>EventHostBadCellForceOutputCompleteAck</t>
   </si>
   <si>
     <t>type</t>
@@ -2021,8 +2024,8 @@
   <sheetPr/>
   <dimension ref="B3:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2067,7 +2070,9 @@
         <v>8</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" ht="18.5" spans="2:7">
       <c r="B5" s="2">
@@ -2075,13 +2080,15 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="9"/>
     </row>
     <row r="6" ht="18.5" spans="2:7">
       <c r="B6" s="2">
@@ -2089,13 +2096,15 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" ht="18.5" spans="2:7">
       <c r="B7" s="2">
@@ -2103,13 +2112,15 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" ht="18.5" spans="2:7">
       <c r="B8" s="2">
@@ -2117,13 +2128,15 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" ht="18.5" spans="2:7">
       <c r="B9" s="2">
@@ -2131,13 +2144,15 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" ht="18.5" spans="2:7">
       <c r="B10" s="2">
@@ -2145,10 +2160,10 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="9"/>
@@ -2159,10 +2174,10 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="9"/>
@@ -2173,10 +2188,10 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="9"/>
@@ -2187,10 +2202,10 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="9"/>
@@ -2201,10 +2216,10 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="9"/>
@@ -2215,10 +2230,10 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="9"/>
@@ -2229,10 +2244,10 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="9"/>
@@ -2243,10 +2258,10 @@
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="9"/>
@@ -2257,10 +2272,10 @@
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="9"/>
@@ -2271,10 +2286,10 @@
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="9"/>
@@ -2285,10 +2300,10 @@
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="9"/>
@@ -2299,13 +2314,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="9"/>
@@ -2316,10 +2331,10 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="9"/>
@@ -2330,10 +2345,10 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="9"/>
@@ -2344,13 +2359,13 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G24" s="9"/>
     </row>
@@ -2360,13 +2375,13 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="G25" s="9"/>
     </row>
@@ -2376,10 +2391,10 @@
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="9"/>
@@ -2390,10 +2405,10 @@
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="9"/>
@@ -2404,10 +2419,10 @@
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="9"/>
@@ -2418,10 +2433,10 @@
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="9"/>
@@ -2431,13 +2446,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="9"/>
@@ -2448,10 +2463,10 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="9"/>
@@ -2462,10 +2477,10 @@
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="9"/>
@@ -2476,10 +2491,10 @@
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="9"/>
@@ -2490,10 +2505,10 @@
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="9"/>
@@ -2504,10 +2519,10 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="9"/>
@@ -2518,10 +2533,10 @@
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="9"/>
@@ -2532,10 +2547,10 @@
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="9"/>
@@ -2546,322 +2561,322 @@
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="9"/>
     </row>
     <row r="39" ht="18.5" spans="2:7">
       <c r="B39" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="9"/>
     </row>
     <row r="40" ht="18.5" spans="2:7">
       <c r="B40" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="9"/>
     </row>
     <row r="41" ht="18.5" spans="2:7">
       <c r="B41" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="9"/>
     </row>
     <row r="42" ht="18.5" spans="2:7">
       <c r="B42" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="9"/>
     </row>
     <row r="43" ht="18.5" spans="2:7">
       <c r="B43" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="9"/>
     </row>
     <row r="44" ht="18.5" spans="2:7">
       <c r="B44" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="9"/>
     </row>
     <row r="45" ht="18.5" spans="2:7">
       <c r="B45" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="9"/>
     </row>
     <row r="46" ht="18.5" spans="2:7">
       <c r="B46" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="9"/>
     </row>
     <row r="47" ht="18.5" spans="2:7">
       <c r="B47" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="9"/>
     </row>
     <row r="48" ht="18.5" spans="2:7">
       <c r="B48" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="9"/>
     </row>
     <row r="49" ht="18.5" spans="2:7">
       <c r="B49" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="9"/>
     </row>
     <row r="50" ht="18.5" spans="2:7">
       <c r="B50" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="9"/>
     </row>
     <row r="51" ht="18.5" spans="2:7">
       <c r="B51" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="9"/>
     </row>
     <row r="52" ht="18.5" spans="2:7">
       <c r="B52" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="9"/>
     </row>
     <row r="53" ht="18.5" spans="2:7">
       <c r="B53" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C53" s="22"/>
       <c r="D53" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="9"/>
     </row>
     <row r="54" ht="18.5" spans="2:7">
       <c r="B54" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="9"/>
     </row>
     <row r="55" ht="18.5" spans="2:7">
       <c r="B55" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="9"/>
     </row>
     <row r="56" ht="18.5" spans="2:7">
       <c r="B56" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="9"/>
     </row>
     <row r="57" ht="18.5" spans="2:7">
       <c r="B57" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="9"/>
     </row>
     <row r="58" ht="18.5" spans="2:7">
       <c r="B58" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="9"/>
     </row>
     <row r="59" ht="18.5" spans="2:7">
       <c r="B59" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="9"/>
     </row>
     <row r="60" ht="18.5" spans="2:7">
       <c r="B60" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="9"/>
@@ -2871,13 +2886,13 @@
         <v>37</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="9"/>
@@ -2888,10 +2903,10 @@
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="9"/>
@@ -2902,10 +2917,10 @@
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="9"/>
@@ -2916,10 +2931,10 @@
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="9"/>
@@ -2929,13 +2944,13 @@
         <v>41</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="9"/>
@@ -2946,10 +2961,10 @@
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="9"/>
@@ -2960,10 +2975,10 @@
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="9"/>
@@ -2974,10 +2989,10 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="9"/>
@@ -2988,10 +3003,10 @@
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="9"/>
@@ -3002,10 +3017,10 @@
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="9"/>
@@ -3016,10 +3031,10 @@
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="9"/>
@@ -3029,13 +3044,13 @@
         <v>48</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="9"/>
@@ -3046,13 +3061,13 @@
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G73" s="9"/>
     </row>
@@ -3062,10 +3077,10 @@
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F74" s="31"/>
       <c r="G74" s="9"/>
@@ -3076,10 +3091,10 @@
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F75" s="31"/>
       <c r="G75" s="9"/>
@@ -3089,13 +3104,13 @@
         <v>52</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="9"/>
@@ -3106,10 +3121,10 @@
       </c>
       <c r="C77" s="24"/>
       <c r="D77" s="33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="9"/>
@@ -3120,10 +3135,10 @@
       </c>
       <c r="C78" s="24"/>
       <c r="D78" s="33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="9"/>
@@ -3134,10 +3149,10 @@
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="9"/>
@@ -3148,10 +3163,10 @@
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="9"/>
@@ -3162,10 +3177,10 @@
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="9"/>
@@ -3176,10 +3191,10 @@
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="9"/>
@@ -3190,10 +3205,10 @@
       </c>
       <c r="C83" s="24"/>
       <c r="D83" s="33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="9"/>
@@ -3204,10 +3219,10 @@
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="9"/>
@@ -3218,10 +3233,10 @@
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="9"/>
@@ -3232,10 +3247,10 @@
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="9"/>
@@ -3245,13 +3260,13 @@
         <v>63</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="9"/>
@@ -3262,10 +3277,10 @@
       </c>
       <c r="C88" s="24"/>
       <c r="D88" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="9"/>
@@ -3276,10 +3291,10 @@
       </c>
       <c r="C89" s="24"/>
       <c r="D89" s="35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="9"/>
@@ -3290,10 +3305,10 @@
       </c>
       <c r="C90" s="24"/>
       <c r="D90" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="9"/>
@@ -3304,10 +3319,10 @@
       </c>
       <c r="C91" s="24"/>
       <c r="D91" s="36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F91" s="31"/>
       <c r="G91" s="9"/>
@@ -3317,13 +3332,13 @@
         <v>68</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D92" s="37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F92" s="31"/>
       <c r="G92" s="9"/>
@@ -3334,10 +3349,10 @@
       </c>
       <c r="C93" s="22"/>
       <c r="D93" s="37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F93" s="31"/>
       <c r="G93" s="9"/>
@@ -3348,10 +3363,10 @@
       </c>
       <c r="C94" s="22"/>
       <c r="D94" s="37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F94" s="31"/>
       <c r="G94" s="9"/>
@@ -3362,10 +3377,10 @@
       </c>
       <c r="C95" s="23"/>
       <c r="D95" s="37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F95" s="31"/>
       <c r="G95" s="9"/>
@@ -3410,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3419,7 +3434,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -3430,13 +3445,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3447,10 +3462,10 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3476,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
@@ -3485,7 +3500,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>4</v>
@@ -3496,13 +3511,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -3513,10 +3528,10 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3542,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -3551,7 +3566,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>4</v>
@@ -3562,13 +3577,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3579,10 +3594,10 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3608,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
@@ -3617,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>4</v>
@@ -3628,13 +3643,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3645,10 +3660,10 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3674,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>2</v>
@@ -3683,7 +3698,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>4</v>
@@ -3694,13 +3709,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3711,10 +3726,10 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3740,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>2</v>
@@ -3749,7 +3764,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>4</v>
@@ -3760,13 +3775,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3777,10 +3792,10 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>

--- a/document/DSF 시퀀스.xlsx
+++ b/document/DSF 시퀀스.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="243">
   <si>
     <t>no</t>
   </si>
@@ -312,31 +312,13 @@
     <t>36_1_5</t>
   </si>
   <si>
-    <t>[분기1 - 자동 투입] 셀 공정 시작 보고 with CellID</t>
-  </si>
-  <si>
-    <t>EventEqpCellProcessStartReport</t>
+    <t>[분기1 - 자동 투입] 자동 셀 투입 완료보고 with CellID &amp; TrayID</t>
+  </si>
+  <si>
+    <t>EventEqpAutoCellInputCompleteReport</t>
   </si>
   <si>
     <t>36_1_6</t>
-  </si>
-  <si>
-    <t>[분기1 - 자동 투입] 셀 공정 시작 보고 Confirm</t>
-  </si>
-  <si>
-    <t>EventHostCellProcessStartAck</t>
-  </si>
-  <si>
-    <t>36_1_7</t>
-  </si>
-  <si>
-    <t>[분기1 - 자동 투입] 자동 셀 투입 완료보고 with CellID &amp; TrayID</t>
-  </si>
-  <si>
-    <t>EventEqpAutoCellInputCompleteReport</t>
-  </si>
-  <si>
-    <t>36_1_8</t>
   </si>
   <si>
     <t>[분기1 - 자동 투입] 자동 셀 투입 완료보고 Confirm</t>
@@ -1484,7 +1466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1516,9 +1498,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1902,10 +1881,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:H95"/>
+  <dimension ref="B3:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2289,7 +2268,7 @@
       <c r="D28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="2"/>
@@ -2303,7 +2282,7 @@
       <c r="D29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F29" s="2"/>
@@ -2316,7 +2295,7 @@
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -2330,7 +2309,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -2344,7 +2323,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -2358,7 +2337,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -2372,7 +2351,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2386,7 +2365,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>72</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -2400,7 +2379,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -2414,7 +2393,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -2428,7 +2407,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -2438,13 +2417,13 @@
       <c r="G38" s="8"/>
     </row>
     <row r="39" ht="18.5" spans="2:7">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2454,11 +2433,11 @@
       <c r="G39" s="8"/>
     </row>
     <row r="40" ht="18.5" spans="2:7">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="13" t="s">
         <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -2468,11 +2447,11 @@
       <c r="G40" s="8"/>
     </row>
     <row r="41" ht="18.5" spans="2:7">
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="13" t="s">
         <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -2482,11 +2461,11 @@
       <c r="G41" s="8"/>
     </row>
     <row r="42" ht="18.5" spans="2:7">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="13" t="s">
         <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -2496,11 +2475,11 @@
       <c r="G42" s="8"/>
     </row>
     <row r="43" ht="18.5" spans="2:7">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>93</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13" t="s">
         <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -2510,11 +2489,11 @@
       <c r="G43" s="8"/>
     </row>
     <row r="44" ht="18.5" spans="2:7">
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>96</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="13" t="s">
         <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -2524,208 +2503,210 @@
       <c r="G44" s="8"/>
     </row>
     <row r="45" ht="18.5" spans="2:7">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="D45" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" ht="18.5" spans="2:7">
-      <c r="B46" s="13" t="s">
-        <v>102</v>
+      <c r="B46" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" ht="18.5" spans="2:7">
-      <c r="B47" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="C47" s="3"/>
+      <c r="D47" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" ht="18.5" spans="2:7">
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="15" t="s">
-        <v>110</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" ht="18.5" spans="2:7">
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="8"/>
     </row>
     <row r="50" ht="18.5" spans="2:7">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="15" t="s">
+      <c r="E50" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="8"/>
     </row>
     <row r="51" ht="18.5" spans="2:7">
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>116</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="14" t="s">
         <v>117</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="8"/>
     </row>
     <row r="52" ht="18.5" spans="2:7">
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="15" t="s">
-        <v>120</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="8"/>
     </row>
     <row r="53" ht="18.5" spans="2:7">
-      <c r="B53" s="13" t="s">
-        <v>122</v>
+      <c r="B53" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="15" t="s">
-        <v>123</v>
+      <c r="D53" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="8"/>
     </row>
     <row r="54" ht="18.5" spans="2:7">
-      <c r="B54" s="13" t="s">
-        <v>124</v>
+      <c r="B54" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="15" t="s">
-        <v>125</v>
+      <c r="D54" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="8"/>
     </row>
     <row r="55" ht="18.5" spans="2:7">
-      <c r="B55" s="13" t="s">
-        <v>126</v>
+      <c r="B55" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="15" t="s">
-        <v>127</v>
+      <c r="D55" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="8"/>
     </row>
     <row r="56" ht="18.5" spans="2:7">
-      <c r="B56" s="13" t="s">
-        <v>128</v>
+      <c r="B56" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="15" t="s">
-        <v>129</v>
+      <c r="D56" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="8"/>
     </row>
     <row r="57" ht="18.5" spans="2:7">
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="8"/>
     </row>
     <row r="58" ht="18.5" spans="2:7">
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="15" t="s">
+      <c r="E58" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="8"/>
     </row>
     <row r="59" ht="18.5" spans="2:7">
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="2">
+        <v>37</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="3"/>
       <c r="D59" s="15" t="s">
         <v>135</v>
       </c>
@@ -2736,536 +2717,506 @@
       <c r="G59" s="8"/>
     </row>
     <row r="60" ht="18.5" spans="2:7">
-      <c r="B60" s="13" t="s">
-        <v>137</v>
+      <c r="B60" s="2">
+        <v>38</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="8"/>
     </row>
     <row r="61" ht="18.5" spans="2:7">
       <c r="B61" s="2">
-        <v>37</v>
-      </c>
-      <c r="C61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="8"/>
     </row>
     <row r="62" ht="18.5" spans="2:7">
       <c r="B62" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="16" t="s">
-        <v>143</v>
+      <c r="D62" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="8"/>
     </row>
     <row r="63" ht="18.5" spans="2:7">
       <c r="B63" s="2">
-        <v>39</v>
-      </c>
-      <c r="C63" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="D63" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="8"/>
     </row>
     <row r="64" ht="18.5" spans="2:7">
       <c r="B64" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="8"/>
     </row>
     <row r="65" ht="18.5" spans="2:7">
       <c r="B65" s="2">
-        <v>41</v>
-      </c>
-      <c r="C65" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>151</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="8"/>
     </row>
     <row r="66" ht="18.5" spans="2:7">
       <c r="B66" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="17" t="s">
-        <v>152</v>
+      <c r="D66" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="8"/>
     </row>
     <row r="67" ht="18.5" spans="2:7">
       <c r="B67" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="17" t="s">
-        <v>154</v>
+      <c r="D67" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="8"/>
     </row>
     <row r="68" ht="18.5" spans="2:7">
       <c r="B68" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="17" t="s">
-        <v>156</v>
+      <c r="D68" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="8"/>
     </row>
     <row r="69" ht="18.5" spans="2:7">
       <c r="B69" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F69" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="F69" s="18"/>
       <c r="G69" s="8"/>
     </row>
     <row r="70" ht="18.5" spans="2:7">
       <c r="B70" s="2">
-        <v>46</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F70" s="2"/>
+      <c r="F70" s="18"/>
       <c r="G70" s="8"/>
     </row>
     <row r="71" ht="18.5" spans="2:7">
       <c r="B71" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E71" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F71" s="19"/>
       <c r="G71" s="8"/>
     </row>
     <row r="72" ht="18.5" spans="2:7">
       <c r="B72" s="2">
-        <v>48</v>
-      </c>
-      <c r="C72" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="E72" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E72" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F72" s="19"/>
+      <c r="F72" s="18"/>
       <c r="G72" s="8"/>
     </row>
     <row r="73" ht="18.5" spans="2:7">
       <c r="B73" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="20" t="s">
+      <c r="D73" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E73" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="E73" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>169</v>
-      </c>
+      <c r="F73" s="18"/>
       <c r="G73" s="8"/>
     </row>
     <row r="74" ht="18.5" spans="2:7">
       <c r="B74" s="2">
-        <v>50</v>
-      </c>
-      <c r="C74" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="D74" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E74" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="F74" s="19"/>
+      <c r="F74" s="2"/>
       <c r="G74" s="8"/>
     </row>
     <row r="75" ht="18.5" spans="2:7">
       <c r="B75" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E75" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="F75" s="19"/>
+      <c r="F75" s="2"/>
       <c r="G75" s="8"/>
     </row>
     <row r="76" ht="18.5" spans="2:7">
       <c r="B76" s="2">
-        <v>52</v>
-      </c>
-      <c r="C76" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="8"/>
     </row>
     <row r="77" ht="18.5" spans="2:7">
       <c r="B77" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="21" t="s">
-        <v>177</v>
+      <c r="D77" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="8"/>
     </row>
     <row r="78" ht="18.5" spans="2:7">
       <c r="B78" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="21" t="s">
-        <v>179</v>
+      <c r="D78" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="8"/>
     </row>
     <row r="79" ht="18.5" spans="2:7">
       <c r="B79" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="21" t="s">
-        <v>181</v>
+      <c r="D79" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="8"/>
     </row>
     <row r="80" ht="18.5" spans="2:7">
       <c r="B80" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C80" s="3"/>
-      <c r="D80" s="21" t="s">
-        <v>183</v>
+      <c r="D80" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="8"/>
     </row>
     <row r="81" ht="18.5" spans="2:7">
       <c r="B81" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C81" s="3"/>
-      <c r="D81" s="21" t="s">
-        <v>185</v>
+      <c r="D81" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="8"/>
     </row>
     <row r="82" ht="18.5" spans="2:7">
       <c r="B82" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C82" s="3"/>
-      <c r="D82" s="21" t="s">
-        <v>187</v>
+      <c r="D82" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="8"/>
     </row>
     <row r="83" ht="18.5" spans="2:7">
       <c r="B83" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C83" s="3"/>
-      <c r="D83" s="21" t="s">
-        <v>189</v>
+      <c r="D83" s="20" t="s">
+        <v>187</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="8"/>
     </row>
     <row r="84" ht="18.5" spans="2:7">
       <c r="B84" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="8"/>
     </row>
     <row r="85" ht="18.5" spans="2:7">
       <c r="B85" s="2">
-        <v>61</v>
-      </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="8"/>
     </row>
     <row r="86" ht="18.5" spans="2:7">
       <c r="B86" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="8"/>
     </row>
     <row r="87" ht="18.5" spans="2:7">
       <c r="B87" s="2">
-        <v>63</v>
-      </c>
-      <c r="C87" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="8"/>
     </row>
     <row r="88" ht="18.5" spans="2:7">
       <c r="B88" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C88" s="3"/>
-      <c r="D88" s="23" t="s">
-        <v>200</v>
+      <c r="D88" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="8"/>
     </row>
     <row r="89" ht="18.5" spans="2:7">
       <c r="B89" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F89" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F89" s="18"/>
       <c r="G89" s="8"/>
     </row>
     <row r="90" ht="18.5" spans="2:7">
       <c r="B90" s="2">
-        <v>66</v>
-      </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E90" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F90" s="2"/>
+      <c r="F90" s="18"/>
       <c r="G90" s="8"/>
     </row>
     <row r="91" ht="18.5" spans="2:7">
       <c r="B91" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="E91" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="E91" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="F91" s="19"/>
+      <c r="F91" s="18"/>
       <c r="G91" s="8"/>
     </row>
     <row r="92" ht="18.5" spans="2:7">
       <c r="B92" s="2">
-        <v>68</v>
-      </c>
-      <c r="C92" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="D92" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="E92" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="F92" s="19"/>
+      <c r="F92" s="18"/>
       <c r="G92" s="8"/>
     </row>
     <row r="93" ht="18.5" spans="2:7">
       <c r="B93" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C93" s="3"/>
-      <c r="D93" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="E93" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="F93" s="19"/>
+      <c r="D93" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="F93" s="18"/>
       <c r="G93" s="8"/>
-    </row>
-    <row r="94" ht="18.5" spans="2:7">
-      <c r="B94" s="2">
-        <v>70</v>
-      </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="E94" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="F94" s="19"/>
-      <c r="G94" s="8"/>
-    </row>
-    <row r="95" ht="18.5" spans="2:7">
-      <c r="B95" s="2">
-        <v>71</v>
-      </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E95" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="F95" s="19"/>
-      <c r="G95" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="C4:C20"/>
     <mergeCell ref="C21:C29"/>
     <mergeCell ref="C30:C38"/>
-    <mergeCell ref="C39:C46"/>
-    <mergeCell ref="C47:C60"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="C65:C71"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="C76:C86"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C45:C58"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C74:C84"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="C90:C93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3293,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3302,7 +3253,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -3313,13 +3264,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3330,10 +3281,10 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3359,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
@@ -3368,7 +3319,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>4</v>
@@ -3379,13 +3330,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -3396,10 +3347,10 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3425,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -3434,7 +3385,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>4</v>
@@ -3445,13 +3396,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3462,10 +3413,10 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3491,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
@@ -3500,7 +3451,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>4</v>
@@ -3511,13 +3462,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3528,10 +3479,10 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3557,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>2</v>
@@ -3566,7 +3517,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>4</v>
@@ -3577,13 +3528,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3594,10 +3545,10 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3623,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>2</v>
@@ -3632,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>4</v>
@@ -3643,13 +3594,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3660,10 +3611,10 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>

--- a/document/DSF 시퀀스.xlsx
+++ b/document/DSF 시퀀스.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12000"/>
+    <workbookView windowWidth="24750" windowHeight="12000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="공정로직" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="242">
   <si>
     <t>no</t>
   </si>
@@ -45,9 +45,6 @@
     <t>비고</t>
   </si>
   <si>
-    <t>Clear</t>
-  </si>
-  <si>
     <t>투입 트레이 투입 요청</t>
   </si>
   <si>
@@ -717,13 +714,13 @@
     <t>Pause</t>
   </si>
   <si>
-    <t>EQP 일시정지 상태 Report</t>
+    <t>EQP 설비일시정지 상태 Report</t>
   </si>
   <si>
     <t>EventEqpPauseStateReport</t>
   </si>
   <si>
-    <t>Host EQP 일시정지 상태 Response</t>
+    <t>Host EQP 설비일시정지 상태 Response</t>
   </si>
   <si>
     <t>EventHostPauseStateResponse</t>
@@ -935,7 +932,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -962,6 +959,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1195,7 +1198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1214,6 +1217,190 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1342,7 +1529,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1354,119 +1541,119 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1485,62 +1672,194 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1883,8 +2202,8 @@
   <sheetPr/>
   <dimension ref="B3:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85:F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1892,1320 +2211,1319 @@
     <col min="3" max="3" width="24.9" customWidth="1"/>
     <col min="4" max="4" width="57.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="46.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="80.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="29.4083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="18.5" spans="2:7">
-      <c r="B3" s="1" t="s">
+    <row r="3" ht="19.25" spans="2:7">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="18.5" spans="2:7">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="18.5" spans="2:7">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" ht="18.5" spans="2:7">
+      <c r="B5" s="14">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" ht="18.5" spans="2:7">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" ht="18.5" spans="2:7">
+      <c r="B6" s="14">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" ht="18.5" spans="2:7">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" ht="18.5" spans="2:7">
+      <c r="B7" s="14">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" ht="18.5" spans="2:7">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" ht="18.5" spans="2:8">
+      <c r="B8" s="14">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" ht="18.5" spans="2:7">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" ht="18.5" spans="2:7">
+      <c r="B9" s="14">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" ht="18.5" spans="2:7">
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" ht="18.5" spans="2:7">
+      <c r="B10" s="14">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" ht="18.5" spans="2:7">
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" ht="18.5" spans="2:7">
+      <c r="B11" s="14">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" ht="18.5" spans="2:7">
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" ht="18.5" spans="2:7">
+      <c r="B12" s="14">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" ht="18.5" spans="2:7">
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" ht="18.5" spans="2:7">
+      <c r="B13" s="14">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" ht="18.5" spans="2:7">
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" ht="18.5" spans="2:7">
+      <c r="B14" s="14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" ht="18.5" spans="2:7">
-      <c r="B14" s="2">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" ht="18.5" spans="2:7">
+      <c r="B15" s="14">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" ht="18.5" spans="2:7">
-      <c r="B15" s="2">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" ht="18.5" spans="2:7">
+      <c r="B16" s="14">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" ht="18.5" spans="2:7">
-      <c r="B16" s="2">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="16"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" ht="18.5" spans="2:7">
+      <c r="B17" s="14">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" ht="18.5" spans="2:7">
-      <c r="B17" s="2">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" ht="18.5" spans="2:7">
+      <c r="B18" s="14">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" ht="18.5" spans="2:7">
-      <c r="B18" s="2">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" ht="18.5" spans="2:7">
+      <c r="B19" s="14">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" ht="18.5" spans="2:7">
-      <c r="B19" s="2">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" ht="17" customHeight="1" spans="2:8">
+      <c r="B20" s="18">
+        <v>17</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" ht="17" customHeight="1" spans="2:8">
-      <c r="B20" s="2">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="22"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" ht="18.5" spans="2:7">
+      <c r="B21" s="8">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" ht="18.5" spans="2:7">
-      <c r="B21" s="2">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" ht="18.5" spans="2:7">
+      <c r="B22" s="14">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" ht="18.5" spans="2:7">
-      <c r="B22" s="2">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="27"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" ht="18.5" spans="2:7">
+      <c r="B23" s="14">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" ht="18.5" spans="2:7">
-      <c r="B23" s="2">
-        <v>20</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="10" t="s">
+      <c r="E23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="27"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" ht="18.5" spans="2:7">
+      <c r="B24" s="14">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" ht="18.5" spans="2:7">
-      <c r="B24" s="2">
-        <v>21</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" ht="18.5" spans="2:7">
+      <c r="B25" s="14">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" ht="18.5" spans="2:7">
-      <c r="B25" s="2">
-        <v>22</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" ht="18.5" spans="2:7">
+      <c r="B26" s="14">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" ht="18.5" spans="2:7">
+      <c r="B27" s="14">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" ht="18.5" spans="2:7">
+      <c r="B28" s="14">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" ht="19.25" spans="2:7">
+      <c r="B29" s="18">
+        <v>26</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" ht="18.5" spans="2:7">
+      <c r="B30" s="8">
+        <v>27</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" ht="18.5" spans="2:7">
+      <c r="B31" s="14">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" ht="18.5" spans="2:7">
+      <c r="B32" s="14">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" ht="18.5" spans="2:7">
+      <c r="B33" s="14">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" ht="18.5" spans="2:7">
+      <c r="B34" s="14">
+        <v>31</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" ht="18.5" spans="2:7">
+      <c r="B35" s="14">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" ht="18.5" spans="2:7">
+      <c r="B36" s="14">
+        <v>33</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" ht="18.5" spans="2:7">
+      <c r="B37" s="14">
+        <v>34</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" ht="19.25" spans="2:7">
+      <c r="B38" s="18">
+        <v>35</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="22"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" ht="18.5" spans="2:7">
+      <c r="B39" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" ht="18.5" spans="2:7">
+      <c r="B40" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" ht="18.5" spans="2:7">
+      <c r="B41" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" ht="18.5" spans="2:7">
+      <c r="B42" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" ht="18.5" spans="2:7">
+      <c r="B43" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" ht="19.25" spans="2:7">
+      <c r="B44" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="22"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" ht="18.5" spans="2:7">
+      <c r="B45" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" ht="18.5" spans="2:7">
+      <c r="B46" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" ht="18.5" spans="2:7">
+      <c r="B47" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" ht="18.5" spans="2:7">
+      <c r="B48" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" ht="18.5" spans="2:7">
+      <c r="B49" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" ht="18.5" spans="2:7">
+      <c r="B50" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" ht="18.5" spans="2:7">
+      <c r="B51" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" ht="18.5" spans="2:7">
+      <c r="B52" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" ht="18.5" spans="2:7">
+      <c r="B53" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" ht="18.5" spans="2:7">
+      <c r="B54" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" ht="18.5" spans="2:7">
+      <c r="B55" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" ht="18.5" spans="2:7">
+      <c r="B56" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" ht="18.5" spans="2:7">
+      <c r="B57" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" ht="19.25" spans="2:7">
+      <c r="B58" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" s="22"/>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" ht="18.5" spans="2:7">
+      <c r="B59" s="8">
+        <v>37</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" ht="18.5" spans="2:7">
+      <c r="B60" s="14">
+        <v>38</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" ht="18.5" spans="2:7">
+      <c r="B61" s="14">
+        <v>39</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="16"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" ht="19.25" spans="2:7">
+      <c r="B62" s="18">
+        <v>40</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" s="22"/>
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" ht="18.5" spans="2:7">
+      <c r="B63" s="8">
+        <v>41</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" ht="18.5" spans="2:7">
+      <c r="B64" s="14">
+        <v>42</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64" s="16"/>
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" ht="18.5" spans="2:7">
+      <c r="B65" s="14">
+        <v>43</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F65" s="16"/>
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" ht="18.5" spans="2:7">
+      <c r="B66" s="14">
+        <v>44</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F66" s="16"/>
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" ht="18.5" spans="2:7">
+      <c r="B67" s="14">
+        <v>45</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F67" s="16"/>
+      <c r="G67" s="13"/>
+    </row>
+    <row r="68" ht="18.5" spans="2:7">
+      <c r="B68" s="14">
+        <v>46</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F68" s="16"/>
+      <c r="G68" s="13"/>
+    </row>
+    <row r="69" ht="19.25" spans="2:7">
+      <c r="B69" s="18">
+        <v>47</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F69" s="22"/>
+      <c r="G69" s="13"/>
+    </row>
+    <row r="70" ht="18.5" spans="2:7">
+      <c r="B70" s="8">
+        <v>48</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E70" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F70" s="50"/>
+      <c r="G70" s="13"/>
+    </row>
+    <row r="71" ht="18.5" spans="2:7">
+      <c r="B71" s="14">
+        <v>49</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="G71" s="13"/>
+    </row>
+    <row r="72" ht="18.5" spans="2:7">
+      <c r="B72" s="14">
         <v>50</v>
       </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" ht="18.5" spans="2:7">
-      <c r="B26" s="2">
-        <v>23</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="10" t="s">
+      <c r="C72" s="3"/>
+      <c r="D72" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="E72" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="F72" s="53"/>
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" ht="19.25" spans="2:7">
+      <c r="B73" s="18">
+        <v>51</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="F73" s="56"/>
+      <c r="G73" s="13"/>
+    </row>
+    <row r="74" ht="18.5" spans="2:7">
+      <c r="B74" s="8">
+        <v>52</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F74" s="12"/>
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75" ht="18.5" spans="2:7">
+      <c r="B75" s="14">
         <v>53</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="C75" s="3"/>
+      <c r="D75" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F75" s="16"/>
+      <c r="G75" s="13"/>
+    </row>
+    <row r="76" ht="18.5" spans="2:7">
+      <c r="B76" s="14">
         <v>54</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" ht="18.5" spans="2:7">
-      <c r="B27" s="2">
-        <v>24</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="10" t="s">
+      <c r="C76" s="3"/>
+      <c r="D76" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F76" s="16"/>
+      <c r="G76" s="13"/>
+    </row>
+    <row r="77" ht="18.5" spans="2:7">
+      <c r="B77" s="14">
         <v>55</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="C77" s="3"/>
+      <c r="D77" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F77" s="16"/>
+      <c r="G77" s="13"/>
+    </row>
+    <row r="78" ht="18.5" spans="2:7">
+      <c r="B78" s="14">
         <v>56</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" ht="18.5" spans="2:7">
-      <c r="B28" s="2">
-        <v>25</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="10" t="s">
+      <c r="C78" s="3"/>
+      <c r="D78" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F78" s="16"/>
+      <c r="G78" s="13"/>
+    </row>
+    <row r="79" ht="18.5" spans="2:7">
+      <c r="B79" s="14">
         <v>57</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="C79" s="3"/>
+      <c r="D79" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F79" s="16"/>
+      <c r="G79" s="13"/>
+    </row>
+    <row r="80" ht="18.5" spans="2:7">
+      <c r="B80" s="14">
         <v>58</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" ht="18.5" spans="2:7">
-      <c r="B29" s="2">
-        <v>26</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="10" t="s">
+      <c r="C80" s="3"/>
+      <c r="D80" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F80" s="16"/>
+      <c r="G80" s="13"/>
+    </row>
+    <row r="81" ht="18.5" spans="2:7">
+      <c r="B81" s="14">
         <v>59</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="C81" s="3"/>
+      <c r="D81" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F81" s="16"/>
+      <c r="G81" s="13"/>
+    </row>
+    <row r="82" ht="18.5" spans="2:7">
+      <c r="B82" s="14">
         <v>60</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" ht="18.5" spans="2:7">
-      <c r="B30" s="2">
-        <v>27</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="C82" s="3"/>
+      <c r="D82" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F82" s="16"/>
+      <c r="G82" s="13"/>
+    </row>
+    <row r="83" ht="18.5" spans="2:7">
+      <c r="B83" s="14">
         <v>61</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="C83" s="3"/>
+      <c r="D83" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F83" s="16"/>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84" ht="19.25" spans="2:7">
+      <c r="B84" s="18">
         <v>62</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="C84" s="19"/>
+      <c r="D84" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="F84" s="22"/>
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" ht="18.5" spans="2:7">
+      <c r="B85" s="8">
         <v>63</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" ht="18.5" spans="2:7">
-      <c r="B31" s="2">
-        <v>28</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="11" t="s">
+      <c r="C85" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D85" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F85" s="12"/>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" ht="18.5" spans="2:7">
+      <c r="B86" s="14">
         <v>64</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="C86" s="3"/>
+      <c r="D86" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F86" s="16"/>
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87" ht="18.5" spans="2:7">
+      <c r="B87" s="14">
         <v>65</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" ht="18.5" spans="2:7">
-      <c r="B32" s="2">
-        <v>29</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="11" t="s">
+      <c r="C87" s="3"/>
+      <c r="D87" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F87" s="16"/>
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88" ht="18.5" spans="2:7">
+      <c r="B88" s="14">
         <v>66</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="C88" s="3"/>
+      <c r="D88" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F88" s="16"/>
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" ht="19.25" spans="2:7">
+      <c r="B89" s="18">
         <v>67</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" ht="18.5" spans="2:7">
-      <c r="B33" s="2">
-        <v>30</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="11" t="s">
+      <c r="C89" s="19"/>
+      <c r="D89" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="E89" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="F89" s="22"/>
+      <c r="G89" s="13"/>
+    </row>
+    <row r="90" ht="18.5" spans="2:7">
+      <c r="B90" s="8">
         <v>68</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="C90" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D90" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="E90" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="F90" s="64"/>
+      <c r="G90" s="13"/>
+    </row>
+    <row r="91" ht="18.5" spans="2:7">
+      <c r="B91" s="14">
         <v>69</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" ht="18.5" spans="2:7">
-      <c r="B34" s="2">
-        <v>31</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="11" t="s">
+      <c r="C91" s="3"/>
+      <c r="D91" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="E91" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="F91" s="66"/>
+      <c r="G91" s="13"/>
+    </row>
+    <row r="92" ht="18.5" spans="2:7">
+      <c r="B92" s="14">
         <v>70</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="C92" s="3"/>
+      <c r="D92" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="E92" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="66"/>
+      <c r="G92" s="13"/>
+    </row>
+    <row r="93" ht="19.25" spans="2:7">
+      <c r="B93" s="18">
         <v>71</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" ht="18.5" spans="2:7">
-      <c r="B35" s="2">
-        <v>32</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" ht="18.5" spans="2:7">
-      <c r="B36" s="2">
-        <v>33</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" ht="18.5" spans="2:7">
-      <c r="B37" s="2">
-        <v>34</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" ht="18.5" spans="2:7">
-      <c r="B38" s="2">
-        <v>35</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" ht="18.5" spans="2:7">
-      <c r="B39" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" ht="18.5" spans="2:7">
-      <c r="B40" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" ht="18.5" spans="2:7">
-      <c r="B41" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" ht="18.5" spans="2:7">
-      <c r="B42" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" ht="18.5" spans="2:7">
-      <c r="B43" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" ht="18.5" spans="2:7">
-      <c r="B44" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" ht="18.5" spans="2:7">
-      <c r="B45" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" ht="18.5" spans="2:7">
-      <c r="B46" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" ht="18.5" spans="2:7">
-      <c r="B47" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" ht="18.5" spans="2:7">
-      <c r="B48" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" ht="18.5" spans="2:7">
-      <c r="B49" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" ht="18.5" spans="2:7">
-      <c r="B50" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" ht="18.5" spans="2:7">
-      <c r="B51" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" ht="18.5" spans="2:7">
-      <c r="B52" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" ht="18.5" spans="2:7">
-      <c r="B53" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" ht="18.5" spans="2:7">
-      <c r="B54" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" ht="18.5" spans="2:7">
-      <c r="B55" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" ht="18.5" spans="2:7">
-      <c r="B56" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" ht="18.5" spans="2:7">
-      <c r="B57" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" ht="18.5" spans="2:7">
-      <c r="B58" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" ht="18.5" spans="2:7">
-      <c r="B59" s="2">
-        <v>37</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" ht="18.5" spans="2:7">
-      <c r="B60" s="2">
-        <v>38</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" ht="18.5" spans="2:7">
-      <c r="B61" s="2">
-        <v>39</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" ht="18.5" spans="2:7">
-      <c r="B62" s="2">
-        <v>40</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" ht="18.5" spans="2:7">
-      <c r="B63" s="2">
-        <v>41</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" ht="18.5" spans="2:7">
-      <c r="B64" s="2">
-        <v>42</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" ht="18.5" spans="2:7">
-      <c r="B65" s="2">
-        <v>43</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="8"/>
-    </row>
-    <row r="66" ht="18.5" spans="2:7">
-      <c r="B66" s="2">
-        <v>44</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="8"/>
-    </row>
-    <row r="67" ht="18.5" spans="2:7">
-      <c r="B67" s="2">
-        <v>45</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="8"/>
-    </row>
-    <row r="68" ht="18.5" spans="2:7">
-      <c r="B68" s="2">
-        <v>46</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="8"/>
-    </row>
-    <row r="69" ht="18.5" spans="2:7">
-      <c r="B69" s="2">
-        <v>47</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F69" s="18"/>
-      <c r="G69" s="8"/>
-    </row>
-    <row r="70" ht="18.5" spans="2:7">
-      <c r="B70" s="2">
-        <v>48</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="F70" s="18"/>
-      <c r="G70" s="8"/>
-    </row>
-    <row r="71" ht="18.5" spans="2:7">
-      <c r="B71" s="2">
-        <v>49</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G71" s="8"/>
-    </row>
-    <row r="72" ht="18.5" spans="2:7">
-      <c r="B72" s="2">
-        <v>50</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F72" s="18"/>
-      <c r="G72" s="8"/>
-    </row>
-    <row r="73" ht="18.5" spans="2:7">
-      <c r="B73" s="2">
-        <v>51</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F73" s="18"/>
-      <c r="G73" s="8"/>
-    </row>
-    <row r="74" ht="18.5" spans="2:7">
-      <c r="B74" s="2">
-        <v>52</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="8"/>
-    </row>
-    <row r="75" ht="18.5" spans="2:7">
-      <c r="B75" s="2">
-        <v>53</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="8"/>
-    </row>
-    <row r="76" ht="18.5" spans="2:7">
-      <c r="B76" s="2">
-        <v>54</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="8"/>
-    </row>
-    <row r="77" ht="18.5" spans="2:7">
-      <c r="B77" s="2">
-        <v>55</v>
-      </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="8"/>
-    </row>
-    <row r="78" ht="18.5" spans="2:7">
-      <c r="B78" s="2">
-        <v>56</v>
-      </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="8"/>
-    </row>
-    <row r="79" ht="18.5" spans="2:7">
-      <c r="B79" s="2">
-        <v>57</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="8"/>
-    </row>
-    <row r="80" ht="18.5" spans="2:7">
-      <c r="B80" s="2">
-        <v>58</v>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F80" s="2"/>
-      <c r="G80" s="8"/>
-    </row>
-    <row r="81" ht="18.5" spans="2:7">
-      <c r="B81" s="2">
-        <v>59</v>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="8"/>
-    </row>
-    <row r="82" ht="18.5" spans="2:7">
-      <c r="B82" s="2">
-        <v>60</v>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F82" s="2"/>
-      <c r="G82" s="8"/>
-    </row>
-    <row r="83" ht="18.5" spans="2:7">
-      <c r="B83" s="2">
-        <v>61</v>
-      </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F83" s="2"/>
-      <c r="G83" s="8"/>
-    </row>
-    <row r="84" ht="18.5" spans="2:7">
-      <c r="B84" s="2">
-        <v>62</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F84" s="2"/>
-      <c r="G84" s="8"/>
-    </row>
-    <row r="85" ht="18.5" spans="2:7">
-      <c r="B85" s="2">
-        <v>63</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="8"/>
-    </row>
-    <row r="86" ht="18.5" spans="2:7">
-      <c r="B86" s="2">
-        <v>64</v>
-      </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F86" s="2"/>
-      <c r="G86" s="8"/>
-    </row>
-    <row r="87" ht="18.5" spans="2:7">
-      <c r="B87" s="2">
-        <v>65</v>
-      </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="8"/>
-    </row>
-    <row r="88" ht="18.5" spans="2:7">
-      <c r="B88" s="2">
-        <v>66</v>
-      </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F88" s="2"/>
-      <c r="G88" s="8"/>
-    </row>
-    <row r="89" ht="18.5" spans="2:7">
-      <c r="B89" s="2">
-        <v>67</v>
-      </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="E89" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F89" s="18"/>
-      <c r="G89" s="8"/>
-    </row>
-    <row r="90" ht="18.5" spans="2:7">
-      <c r="B90" s="2">
-        <v>68</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D90" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E90" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="F90" s="18"/>
-      <c r="G90" s="8"/>
-    </row>
-    <row r="91" ht="18.5" spans="2:7">
-      <c r="B91" s="2">
-        <v>69</v>
-      </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="E91" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="F91" s="18"/>
-      <c r="G91" s="8"/>
-    </row>
-    <row r="92" ht="18.5" spans="2:7">
-      <c r="B92" s="2">
-        <v>70</v>
-      </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="E92" s="18" t="s">
+      <c r="C93" s="19"/>
+      <c r="D93" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="18"/>
-      <c r="G92" s="8"/>
-    </row>
-    <row r="93" ht="18.5" spans="2:7">
-      <c r="B93" s="2">
-        <v>71</v>
-      </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="24" t="s">
+      <c r="E93" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="E93" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="F93" s="18"/>
-      <c r="G93" s="8"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="20">
     <mergeCell ref="C4:C20"/>
     <mergeCell ref="C21:C29"/>
     <mergeCell ref="C30:C38"/>
@@ -3217,6 +3535,15 @@
     <mergeCell ref="C74:C84"/>
     <mergeCell ref="C85:C89"/>
     <mergeCell ref="C90:C93"/>
+    <mergeCell ref="F4:F20"/>
+    <mergeCell ref="F30:F38"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="F45:F58"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F63:F69"/>
+    <mergeCell ref="F74:F84"/>
+    <mergeCell ref="F85:F89"/>
+    <mergeCell ref="F90:F93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3228,8 +3555,8 @@
   <sheetPr/>
   <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3244,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -3253,7 +3580,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -3264,13 +3591,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3281,10 +3608,10 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3310,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
@@ -3319,7 +3646,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>4</v>
@@ -3330,13 +3657,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -3347,10 +3674,10 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3376,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -3385,7 +3712,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>4</v>
@@ -3396,13 +3723,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3413,10 +3740,10 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3442,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
@@ -3451,7 +3778,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>4</v>
@@ -3462,13 +3789,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3479,10 +3806,10 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3508,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>2</v>
@@ -3517,7 +3844,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>4</v>
@@ -3528,13 +3855,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3545,10 +3872,10 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3574,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>2</v>
@@ -3583,7 +3910,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>4</v>
@@ -3594,13 +3921,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3611,10 +3938,10 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>

--- a/document/DSF 시퀀스.xlsx
+++ b/document/DSF 시퀀스.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12000" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="공정로직" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="241">
   <si>
     <t>no</t>
   </si>
@@ -189,7 +189,7 @@
     <t>배출 Tray Break 완료 보고</t>
   </si>
   <si>
-    <t>EventEqpOutTrayBreakCompleteRequest</t>
+    <t>EventEqpOutTrayBreakCompleteReport</t>
   </si>
   <si>
     <t>배출 Tray Break 완료 보고 Confirm</t>
@@ -201,7 +201,7 @@
     <t>배출 Tray 투입 완료 보고</t>
   </si>
   <si>
-    <t>EventEqpOutletTrayInputCompleteRequest</t>
+    <t>EventEqpOutletTrayInputCompleteReport</t>
   </si>
   <si>
     <t>배출 Tray 투입 완료 보고 Confirm</t>
@@ -661,9 +661,6 @@
   </si>
   <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>Process</t>
   </si>
   <si>
     <t>HasTrouble</t>
@@ -932,7 +929,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -954,12 +951,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1529,7 +1520,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1553,16 +1544,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1571,105 +1562,117 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1693,9 +1696,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1705,9 +1705,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1726,48 +1723,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1786,19 +1792,10 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1807,7 +1804,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1816,7 +1813,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1825,41 +1822,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2202,8 +2190,8 @@
   <sheetPr/>
   <dimension ref="B3:H93"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85:F89"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2215,1312 +2203,1312 @@
   </cols>
   <sheetData>
     <row r="3" ht="19.25" spans="2:7">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" ht="18.5" spans="2:7">
-      <c r="B4" s="8">
+      <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" ht="18.5" spans="2:7">
-      <c r="B5" s="14">
+      <c r="B5" s="17">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" ht="18.5" spans="2:7">
-      <c r="B6" s="14">
+      <c r="B6" s="17">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" ht="18.5" spans="2:7">
-      <c r="B7" s="14">
+      <c r="B7" s="17">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" ht="18.5" spans="2:8">
-      <c r="B8" s="14">
+      <c r="B8" s="17">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="17"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" ht="18.5" spans="2:7">
-      <c r="B9" s="14">
+      <c r="B9" s="17">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" ht="18.5" spans="2:7">
-      <c r="B10" s="14">
+      <c r="B10" s="17">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" ht="18.5" spans="2:7">
-      <c r="B11" s="14">
+      <c r="B11" s="17">
         <v>8</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" ht="18.5" spans="2:7">
-      <c r="B12" s="14">
+      <c r="B12" s="17">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" ht="18.5" spans="2:7">
-      <c r="B13" s="14">
+      <c r="B13" s="17">
         <v>10</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" ht="18.5" spans="2:7">
-      <c r="B14" s="14">
+      <c r="B14" s="17">
         <v>11</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="13"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" ht="18.5" spans="2:7">
-      <c r="B15" s="14">
+      <c r="B15" s="17">
         <v>12</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="13"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" ht="18.5" spans="2:7">
-      <c r="B16" s="14">
+      <c r="B16" s="17">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="13"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" ht="18.5" spans="2:7">
-      <c r="B17" s="14">
+      <c r="B17" s="17">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="13"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" ht="18.5" spans="2:7">
-      <c r="B18" s="14">
+      <c r="B18" s="17">
         <v>15</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="13"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" ht="18.5" spans="2:7">
-      <c r="B19" s="14">
+      <c r="B19" s="17">
         <v>16</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="13"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" ht="17" customHeight="1" spans="2:8">
-      <c r="B20" s="18">
+      <c r="B20" s="20">
         <v>17</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="25"/>
     </row>
     <row r="21" ht="18.5" spans="2:7">
-      <c r="B21" s="8">
+      <c r="B21" s="12">
         <v>18</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="13"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" ht="18.5" spans="2:7">
-      <c r="B22" s="14">
+      <c r="B22" s="17">
         <v>19</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="26" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="13"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" ht="18.5" spans="2:7">
-      <c r="B23" s="14">
+      <c r="B23" s="17">
         <v>20</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="26" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="13"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" ht="18.5" spans="2:7">
-      <c r="B24" s="14">
+      <c r="B24" s="17">
         <v>21</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="26" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" ht="18.5" spans="2:7">
-      <c r="B25" s="14">
+      <c r="B25" s="17">
         <v>22</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="26" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" ht="18.5" spans="2:7">
-      <c r="B26" s="14">
+      <c r="B26" s="17">
         <v>23</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="13"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" ht="18.5" spans="2:7">
-      <c r="B27" s="14">
+      <c r="B27" s="17">
         <v>24</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="26" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="13"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" ht="18.5" spans="2:7">
-      <c r="B28" s="14">
+      <c r="B28" s="17">
         <v>25</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="26" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="13"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" ht="19.25" spans="2:7">
-      <c r="B29" s="18">
+      <c r="B29" s="20">
         <v>26</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="28" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="13"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" ht="18.5" spans="2:7">
-      <c r="B30" s="8">
+      <c r="B30" s="12">
         <v>27</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" ht="18.5" spans="2:7">
-      <c r="B31" s="14">
+      <c r="B31" s="17">
         <v>28</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="31" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="13"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" ht="18.5" spans="2:7">
-      <c r="B32" s="14">
+      <c r="B32" s="17">
         <v>29</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="31" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="13"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" ht="18.5" spans="2:7">
-      <c r="B33" s="14">
+      <c r="B33" s="17">
         <v>30</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="31" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="13"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" ht="18.5" spans="2:7">
-      <c r="B34" s="14">
+      <c r="B34" s="17">
         <v>31</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="31" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="13"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" ht="18.5" spans="2:7">
-      <c r="B35" s="14">
+      <c r="B35" s="17">
         <v>32</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="31" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="13"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" ht="18.5" spans="2:7">
-      <c r="B36" s="14">
+      <c r="B36" s="17">
         <v>33</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="31" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="13"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" ht="18.5" spans="2:7">
-      <c r="B37" s="14">
+      <c r="B37" s="17">
         <v>34</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="31" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="13"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" ht="19.25" spans="2:7">
-      <c r="B38" s="18">
+      <c r="B38" s="20">
         <v>35</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="32" t="s">
+      <c r="C38" s="21"/>
+      <c r="D38" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="13"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" ht="18.5" spans="2:7">
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="13"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" ht="18.5" spans="2:7">
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="36" t="s">
+      <c r="C40" s="4"/>
+      <c r="D40" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="13"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" ht="18.5" spans="2:7">
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="36" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="13"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" ht="18.5" spans="2:7">
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="36" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="13"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" ht="18.5" spans="2:7">
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="36" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="13"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" ht="19.25" spans="2:7">
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="38" t="s">
+      <c r="C44" s="21"/>
+      <c r="D44" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="13"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" ht="18.5" spans="2:7">
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="13"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" ht="18.5" spans="2:7">
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="40" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="13"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" ht="18.5" spans="2:7">
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="40" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="13"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" ht="18.5" spans="2:7">
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="40" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="13"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" ht="18.5" spans="2:7">
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="40" t="s">
+      <c r="C49" s="4"/>
+      <c r="D49" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="13"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" ht="18.5" spans="2:7">
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="40" t="s">
+      <c r="C50" s="4"/>
+      <c r="D50" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="13"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" ht="18.5" spans="2:7">
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="40" t="s">
+      <c r="C51" s="4"/>
+      <c r="D51" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="13"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" ht="18.5" spans="2:7">
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="40" t="s">
+      <c r="C52" s="4"/>
+      <c r="D52" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="13"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" ht="18.5" spans="2:7">
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="40" t="s">
+      <c r="C53" s="4"/>
+      <c r="D53" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="13"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" ht="18.5" spans="2:7">
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="40" t="s">
+      <c r="C54" s="4"/>
+      <c r="D54" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="13"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" ht="18.5" spans="2:7">
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="40" t="s">
+      <c r="C55" s="4"/>
+      <c r="D55" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="13"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" ht="18.5" spans="2:7">
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="40" t="s">
+      <c r="C56" s="4"/>
+      <c r="D56" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="13"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="11"/>
     </row>
     <row r="57" ht="18.5" spans="2:7">
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="40" t="s">
+      <c r="C57" s="4"/>
+      <c r="D57" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="13"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" ht="19.25" spans="2:7">
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="41" t="s">
+      <c r="C58" s="21"/>
+      <c r="D58" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="13"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="11"/>
     </row>
     <row r="59" ht="18.5" spans="2:7">
-      <c r="B59" s="8">
+      <c r="B59" s="12">
         <v>37</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D59" s="42" t="s">
+      <c r="D59" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="13"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" ht="18.5" spans="2:7">
-      <c r="B60" s="14">
+      <c r="B60" s="17">
         <v>38</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="43" t="s">
+      <c r="C60" s="4"/>
+      <c r="D60" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="13"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" ht="18.5" spans="2:7">
-      <c r="B61" s="14">
+      <c r="B61" s="17">
         <v>39</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="43" t="s">
+      <c r="C61" s="4"/>
+      <c r="D61" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="13"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="11"/>
     </row>
     <row r="62" ht="19.25" spans="2:7">
-      <c r="B62" s="18">
+      <c r="B62" s="20">
         <v>40</v>
       </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="44" t="s">
+      <c r="C62" s="21"/>
+      <c r="D62" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="F62" s="22"/>
-      <c r="G62" s="13"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="11"/>
     </row>
     <row r="63" ht="18.5" spans="2:7">
-      <c r="B63" s="8">
+      <c r="B63" s="12">
         <v>41</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D63" s="45" t="s">
+      <c r="D63" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="F63" s="12"/>
-      <c r="G63" s="13"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="11"/>
     </row>
     <row r="64" ht="18.5" spans="2:7">
-      <c r="B64" s="14">
+      <c r="B64" s="17">
         <v>42</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="46" t="s">
+      <c r="C64" s="4"/>
+      <c r="D64" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="13"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="11"/>
     </row>
     <row r="65" ht="18.5" spans="2:7">
-      <c r="B65" s="14">
+      <c r="B65" s="17">
         <v>43</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="46" t="s">
+      <c r="C65" s="4"/>
+      <c r="D65" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F65" s="16"/>
-      <c r="G65" s="13"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="11"/>
     </row>
     <row r="66" ht="18.5" spans="2:7">
-      <c r="B66" s="14">
+      <c r="B66" s="17">
         <v>44</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="46" t="s">
+      <c r="C66" s="4"/>
+      <c r="D66" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="13"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="11"/>
     </row>
     <row r="67" ht="18.5" spans="2:7">
-      <c r="B67" s="14">
+      <c r="B67" s="17">
         <v>45</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="46" t="s">
+      <c r="C67" s="4"/>
+      <c r="D67" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F67" s="16"/>
-      <c r="G67" s="13"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="11"/>
     </row>
     <row r="68" ht="18.5" spans="2:7">
-      <c r="B68" s="14">
+      <c r="B68" s="17">
         <v>46</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="46" t="s">
+      <c r="C68" s="4"/>
+      <c r="D68" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F68" s="16"/>
-      <c r="G68" s="13"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="11"/>
     </row>
     <row r="69" ht="19.25" spans="2:7">
-      <c r="B69" s="18">
+      <c r="B69" s="20">
         <v>47</v>
       </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="47" t="s">
+      <c r="C69" s="21"/>
+      <c r="D69" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E69" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="13"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="11"/>
     </row>
     <row r="70" ht="18.5" spans="2:7">
-      <c r="B70" s="8">
+      <c r="B70" s="12">
         <v>48</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D70" s="48" t="s">
+      <c r="D70" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="E70" s="49" t="s">
+      <c r="E70" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="F70" s="50"/>
-      <c r="G70" s="13"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="11"/>
     </row>
     <row r="71" ht="18.5" spans="2:7">
-      <c r="B71" s="14">
+      <c r="B71" s="17">
         <v>49</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="51" t="s">
+      <c r="C71" s="4"/>
+      <c r="D71" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="E71" s="52" t="s">
+      <c r="E71" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="F71" s="53" t="s">
+      <c r="F71" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="G71" s="13"/>
+      <c r="G71" s="11"/>
     </row>
     <row r="72" ht="18.5" spans="2:7">
-      <c r="B72" s="14">
+      <c r="B72" s="17">
         <v>50</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="51" t="s">
+      <c r="C72" s="4"/>
+      <c r="D72" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="E72" s="52" t="s">
+      <c r="E72" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="F72" s="53"/>
-      <c r="G72" s="13"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="11"/>
     </row>
     <row r="73" ht="19.25" spans="2:7">
-      <c r="B73" s="18">
+      <c r="B73" s="20">
         <v>51</v>
       </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="54" t="s">
+      <c r="C73" s="21"/>
+      <c r="D73" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="E73" s="55" t="s">
+      <c r="E73" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="F73" s="56"/>
-      <c r="G73" s="13"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="11"/>
     </row>
     <row r="74" ht="18.5" spans="2:7">
-      <c r="B74" s="8">
+      <c r="B74" s="12">
         <v>52</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D74" s="57" t="s">
+      <c r="D74" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="F74" s="12"/>
-      <c r="G74" s="13"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="11"/>
     </row>
     <row r="75" ht="18.5" spans="2:7">
-      <c r="B75" s="14">
+      <c r="B75" s="17">
         <v>53</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="58" t="s">
+      <c r="C75" s="4"/>
+      <c r="D75" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F75" s="16"/>
-      <c r="G75" s="13"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="11"/>
     </row>
     <row r="76" ht="18.5" spans="2:7">
-      <c r="B76" s="14">
+      <c r="B76" s="17">
         <v>54</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="58" t="s">
+      <c r="C76" s="4"/>
+      <c r="D76" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="13"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="11"/>
     </row>
     <row r="77" ht="18.5" spans="2:7">
-      <c r="B77" s="14">
+      <c r="B77" s="17">
         <v>55</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="58" t="s">
+      <c r="C77" s="4"/>
+      <c r="D77" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="13"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="11"/>
     </row>
     <row r="78" ht="18.5" spans="2:7">
-      <c r="B78" s="14">
+      <c r="B78" s="17">
         <v>56</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="58" t="s">
+      <c r="C78" s="4"/>
+      <c r="D78" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F78" s="16"/>
-      <c r="G78" s="13"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="11"/>
     </row>
     <row r="79" ht="18.5" spans="2:7">
-      <c r="B79" s="14">
+      <c r="B79" s="17">
         <v>57</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="58" t="s">
+      <c r="C79" s="4"/>
+      <c r="D79" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="13"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="11"/>
     </row>
     <row r="80" ht="18.5" spans="2:7">
-      <c r="B80" s="14">
+      <c r="B80" s="17">
         <v>58</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="58" t="s">
+      <c r="C80" s="4"/>
+      <c r="D80" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F80" s="16"/>
-      <c r="G80" s="13"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="11"/>
     </row>
     <row r="81" ht="18.5" spans="2:7">
-      <c r="B81" s="14">
+      <c r="B81" s="17">
         <v>59</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="58" t="s">
+      <c r="C81" s="4"/>
+      <c r="D81" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F81" s="16"/>
-      <c r="G81" s="13"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="11"/>
     </row>
     <row r="82" ht="18.5" spans="2:7">
-      <c r="B82" s="14">
+      <c r="B82" s="17">
         <v>60</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="58" t="s">
+      <c r="C82" s="4"/>
+      <c r="D82" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F82" s="16"/>
-      <c r="G82" s="13"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="11"/>
     </row>
     <row r="83" ht="18.5" spans="2:7">
-      <c r="B83" s="14">
+      <c r="B83" s="17">
         <v>61</v>
       </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="58" t="s">
+      <c r="C83" s="4"/>
+      <c r="D83" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="13"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="11"/>
     </row>
     <row r="84" ht="19.25" spans="2:7">
-      <c r="B84" s="18">
+      <c r="B84" s="20">
         <v>62</v>
       </c>
-      <c r="C84" s="19"/>
-      <c r="D84" s="59" t="s">
+      <c r="C84" s="21"/>
+      <c r="D84" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="E84" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="F84" s="22"/>
-      <c r="G84" s="13"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="11"/>
     </row>
     <row r="85" ht="18.5" spans="2:7">
-      <c r="B85" s="8">
+      <c r="B85" s="12">
         <v>63</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D85" s="60" t="s">
+      <c r="D85" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="F85" s="12"/>
-      <c r="G85" s="13"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="11"/>
     </row>
     <row r="86" ht="18.5" spans="2:7">
-      <c r="B86" s="14">
+      <c r="B86" s="17">
         <v>64</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="61" t="s">
+      <c r="C86" s="4"/>
+      <c r="D86" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F86" s="16"/>
-      <c r="G86" s="13"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="11"/>
     </row>
     <row r="87" ht="18.5" spans="2:7">
-      <c r="B87" s="14">
+      <c r="B87" s="17">
         <v>65</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="61" t="s">
+      <c r="C87" s="4"/>
+      <c r="D87" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F87" s="16"/>
-      <c r="G87" s="13"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="11"/>
     </row>
     <row r="88" ht="18.5" spans="2:7">
-      <c r="B88" s="14">
+      <c r="B88" s="17">
         <v>66</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="61" t="s">
+      <c r="C88" s="4"/>
+      <c r="D88" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F88" s="16"/>
-      <c r="G88" s="13"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="11"/>
     </row>
     <row r="89" ht="19.25" spans="2:7">
-      <c r="B89" s="18">
+      <c r="B89" s="20">
         <v>67</v>
       </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="62" t="s">
+      <c r="C89" s="21"/>
+      <c r="D89" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="E89" s="55" t="s">
+      <c r="E89" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="F89" s="22"/>
-      <c r="G89" s="13"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="11"/>
     </row>
     <row r="90" ht="18.5" spans="2:7">
-      <c r="B90" s="8">
+      <c r="B90" s="12">
         <v>68</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="D90" s="63" t="s">
+      <c r="D90" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="E90" s="49" t="s">
+      <c r="E90" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="F90" s="64"/>
-      <c r="G90" s="13"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="11"/>
     </row>
     <row r="91" ht="18.5" spans="2:7">
-      <c r="B91" s="14">
+      <c r="B91" s="17">
         <v>69</v>
       </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="65" t="s">
+      <c r="C91" s="4"/>
+      <c r="D91" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="E91" s="52" t="s">
+      <c r="E91" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="F91" s="66"/>
-      <c r="G91" s="13"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="11"/>
     </row>
     <row r="92" ht="18.5" spans="2:7">
-      <c r="B92" s="14">
+      <c r="B92" s="17">
         <v>70</v>
       </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="65" t="s">
+      <c r="C92" s="4"/>
+      <c r="D92" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="E92" s="52" t="s">
+      <c r="E92" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="F92" s="66"/>
-      <c r="G92" s="13"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="11"/>
     </row>
     <row r="93" ht="19.25" spans="2:7">
-      <c r="B93" s="18">
+      <c r="B93" s="20">
         <v>71</v>
       </c>
-      <c r="C93" s="19"/>
+      <c r="C93" s="21"/>
       <c r="D93" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="E93" s="55" t="s">
+      <c r="E93" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="F93" s="68"/>
-      <c r="G93" s="13"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -3553,10 +3541,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:G29"/>
+  <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3566,6 +3554,7 @@
     <col min="5" max="5" width="41.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="29" customHeight="1"/>
     <row r="2" ht="18.5" spans="2:7">
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -3579,58 +3568,54 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" ht="18.5" spans="2:7">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" ht="18.5" spans="2:7">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" ht="18.5" spans="2:7">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" ht="18.5" spans="2:7">
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" ht="18.5" spans="2:7">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" ht="18.5" spans="2:7">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" ht="18.5" spans="2:7">
       <c r="B7" s="1" t="s">
@@ -3645,58 +3630,54 @@
       <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" ht="18.5" spans="2:7">
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" ht="18.5" spans="2:7">
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" ht="18.5" spans="2:7">
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" ht="18.5" spans="2:7">
       <c r="B12" s="1" t="s">
@@ -3711,58 +3692,54 @@
       <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" ht="18.5" spans="2:7">
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" ht="18.5" spans="2:7">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" ht="18.5" spans="2:7">
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" ht="18.5" spans="2:7">
       <c r="B17" s="1" t="s">
@@ -3777,58 +3754,54 @@
       <c r="E17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" ht="18.5" spans="2:7">
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" ht="18.5" spans="2:7">
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" ht="18.5" spans="2:7">
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" ht="18.5" spans="2:7">
       <c r="B22" s="1" t="s">
@@ -3843,58 +3816,54 @@
       <c r="E22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" ht="18.5" spans="2:7">
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" ht="18.5" spans="2:7">
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" ht="18.5" spans="2:7">
-      <c r="B24" s="2">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" ht="18.5" spans="2:7">
       <c r="B27" s="1" t="s">
@@ -3909,42 +3878,38 @@
       <c r="E27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" ht="18.5" spans="2:7">
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>1</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" ht="18.5" spans="2:7">
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" ht="18.5" spans="2:7">
-      <c r="B29" s="2">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
